--- a/excel_files/fadScores.xlsx
+++ b/excel_files/fadScores.xlsx
@@ -14,6 +14,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="encodec-emb-48k" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="encodec-emb" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="clap-laion-music" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M-2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M-3" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M-4" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M-5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M-6" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M-7" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M-8" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M-9" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M-10" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M-11" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dac-44kHz" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdpam-acoustic" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdpam-content" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -825,6 +839,3456 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>11.84052431248728</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>5.708305241395138</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>13.07435997415855</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>7.599012487519985</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>6.899072446353941</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>7.74123522770023</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>7.121544662124379</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>8.569150621677071</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>13.53002246120559</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>6.90071782371605</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>4.817678480375122</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>7.701461691996428</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>4.927298952341204</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>6.538186325070171</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>4.132833205026458</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>6.935456991390146</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>6.373556906366304</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>9.351476523687737</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>7.25659258215434</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>8.951055693459949</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>8.520494215920763</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>8.926160784087401</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>6.444982250212064</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>7.97490270798408</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>9.506227945702619</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>14.1617472104368</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>8.363135754926532</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>13.75417725063883</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>7.276826851791029</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>7.414523013647482</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>8.526351993110381</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>9.857570002893382</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>17.24856914816633</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>6.003045996823346</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>19.18666442330343</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>6.049552800905332</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>12.80319122448259</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>10.32131727738101</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>6.906742298847121</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>11.21701188141559</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>9.135603702938411</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>7.403112440648613</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>8.125796595278672</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>6.074243095970331</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>5.542636305723093</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.976015306512863</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>5.561437008184825</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>6.54554920789383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>7.076420867897099</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>5.900005900435417</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>4.789277056679879</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>9.355832457480474</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>5.719733121833443</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.539993414245927</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>5.948732049474174</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>6.189999266863773</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>7.559987040693784</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>6.040071054415279</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>9.502646655449183</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7.843272992190165</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.439432413673742</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.370462596374324</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>9.038964320481369</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>7.113548153325406</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>15.41817686386251</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>6.595710088717411</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>11.94064849683828</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>5.141824402306582</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>6.104790648067336</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>5.785044370678122</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>6.655223362614393</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>8.23448831901209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>11.80501920387913</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>5.67908992549566</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>12.77987804382376</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>7.335091749123535</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>7.019659231133232</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>7.281655290395378</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>7.169583776782488</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>8.438568174376169</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>13.4491145012785</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>7.05235660957409</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>5.188118096799869</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>7.684318648617023</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>4.956384063944938</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>6.063820127096761</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>4.533611676663455</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>6.989674817710663</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>6.22005268238243</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>9.354944908079162</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>7.317348994747221</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>9.189739099117531</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>7.926262551145882</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>8.248344247641626</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>6.698759339761708</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>7.850778831839365</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>9.406689066308303</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>14.30596387706251</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>8.633553323272537</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>13.76997730253319</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>6.955175130545882</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>6.865962831245497</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>9.424877183658808</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>9.908885530660962</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>17.602106419164</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>5.988500017221611</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>19.53494424635318</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>6.054423412237185</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>12.59841725712246</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>9.91879922431356</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>6.961957685688205</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>11.23702118030003</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>9.343872621262932</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>7.155877281980565</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>8.391060928052809</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>6.05073550210372</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>5.699869209232389</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.696041420460574</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>6.704462706039465</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>6.720274238447494</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>7.39069703313244</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>6.046805007574065</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>4.98577136658011</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>9.830176666056133</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>5.90803789246371</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.320925790613103</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>6.437897222624144</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>6.417187282720529</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>7.269940681646631</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>6.007040025095023</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>9.2291530775083</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7.892042068084919</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.449778968749342</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.056991509172349</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>9.347852813670713</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>7.036114163418183</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>16.13633395324656</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>7.625278794270116</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>11.59580733703798</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>5.174909662858227</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>7.20325149012757</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>6.630244147021131</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>8.059547151263487</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>8.917910362260725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>12.0886547093187</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>5.611260632277904</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>12.59063848270908</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>7.152518632793772</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>6.63088831306203</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>6.977725837232299</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>7.245245567954925</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>8.328133167906959</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>13.73279892679933</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>7.222535696811676</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>5.282643609226838</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>7.365799772421823</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>4.748649843427586</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>5.61228057625911</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>4.616532001461906</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>6.940177203772611</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>6.119228949669534</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>8.631811849987827</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>7.426953801136946</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>8.504403440191709</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>6.953044232167684</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>6.884689299736038</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>7.096772611167736</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>7.373843454865353</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>9.703599392760509</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>14.12454575374483</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>9.308852662143664</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>13.38684539613377</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>6.296786704278077</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>5.768316740334797</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>10.36009262596437</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>9.849862753622858</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>17.7563942417446</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>5.813455656365065</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>19.11599093465482</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>5.734265886587878</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>11.31379489712224</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>8.604116877978328</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>6.884181014688536</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>10.74602850130592</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>9.168454208501174</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>7.398450224164634</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>7.827170188083144</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>6.427284165765386</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>5.141686076119242</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.405190026233925</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>7.012670217414779</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>6.625843586611755</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>7.186454193218054</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>5.889812412583382</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>4.778071938450609</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>9.870209411243451</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>5.679615127257009</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.030181606609091</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>6.636127949278134</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>6.295781805519961</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>7.752292946100511</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>6.050326312791725</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>9.113014229970332</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7.337890542982535</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.061794954899597</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.75098372557747</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>10.15453958615153</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>7.031548899781957</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>16.68358927952858</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>9.190844691539709</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>11.50301651109828</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>5.032169748135814</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>7.816507789200614</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>8.549164965736338</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>9.203063174220475</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>9.711193737065686</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>12.90964019720812</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>6.023706681259128</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>13.31026950723638</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>7.341543567059261</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>6.345251148945749</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>7.586159230132139</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>8.143613755324722</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>8.808597726737929</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>14.44762685007046</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>8.29828748402042</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>5.849620659071164</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>7.372783638859474</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>4.824737685869877</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>5.589694847947897</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>4.840147299843295</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>7.317556923668941</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>6.820632644919371</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>8.533219929082264</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>8.31950792508664</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>8.30709596351258</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>6.465183853976896</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>5.941132631796805</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>7.802978814403701</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>7.455678823254037</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>10.51285644678453</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>14.93215165482604</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>10.30051704114459</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>14.02626302871334</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>6.115713899977237</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>5.024006313245536</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>11.54997576918444</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>10.35164059341082</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>19.14172731617894</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>6.084674045088988</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>20.42306272086381</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>5.737671090439278</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>11.31384884130868</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>7.752358317176714</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>7.342822265668985</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>11.1137377995322</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>10.11939901841559</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>8.727269968824004</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>8.287932031926346</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>7.350570407173052</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>5.301207869818455</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.620699777625134</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>7.855675286436238</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>7.323250622888403</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>7.905514276013577</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>6.61678928202582</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>5.079392813217112</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>10.56004494755885</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>5.919114566665684</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.19749551930596</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>7.494010463048042</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>6.824623123976435</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>9.085408843204462</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>6.829566922546519</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>10.19988005354863</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7.412931119172754</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.155545396845071</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.14287284513108</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>12.24787675338759</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>7.867725990548014</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>18.31703282591423</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>10.64471115186238</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>11.90080712716262</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>5.214856322401985</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>8.914575980458864</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>10.11244102336931</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>9.674972857225555</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>10.68277104119928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>13.62129603335345</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>6.191513440701101</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>14.42937766562851</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>7.738349615242811</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>6.114339904455704</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>7.091478309795093</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>9.225997014140745</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>9.201764569045343</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>15.08936695355955</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>9.342616494117948</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>6.29256640863295</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>7.86540860484611</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>4.610607482218398</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>5.760766517908166</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>5.104916400433297</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>7.72374983738806</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>7.726278137037241</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>9.075393466780497</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>9.490864880273648</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>8.999323463627576</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>6.302918372897864</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>5.90299692116406</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>9.00657999918883</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>8.072050748709959</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>11.0057731693076</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>16.31954402370938</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>11.13481729505375</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>15.70956770609656</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>6.216738245032758</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>5.163304166123851</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>13.44491351762389</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>11.28495116042111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>21.56514001792752</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>6.3448737064179</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>23.20015373674102</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>6.00516974674369</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>10.55397608006774</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>7.519485297760099</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>8.229920676158699</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>11.91695989454524</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>11.4737436263393</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>9.711829344336195</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>9.523066481263513</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>8.340502044416638</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>5.547278379252731</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.638289605296507</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>9.681511474405085</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>8.273745850758567</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>8.666358252747301</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>7.095596201062136</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>5.339025974954893</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>11.53082500352566</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>6.107605424910446</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.216870251857557</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>8.433014272694024</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>7.34132791167886</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>10.24182574107277</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>7.612093542901704</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>11.16406764727716</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7.870688807957151</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.086769453545315</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.446907801405018</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>14.39538002849903</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>8.688247574665452</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>19.58407002120295</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>10.09530707939007</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>12.64950502061006</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>5.336125032064928</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>8.038014197740154</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>8.656696258773138</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>10.46094008175356</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>10.68866538450498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>14.79972276099861</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>6.421440659682332</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>15.77713743445739</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>8.490295625220369</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>5.917143460193614</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>6.109223925155362</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>10.31531922470296</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>9.690040441487232</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>16.30704671901233</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>10.81887136609025</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>6.466163050011005</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>8.099442487451341</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>4.266668284169953</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>5.949666679581355</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>5.333460288432235</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>8.177331267821211</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>8.596853894294924</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>9.455286586565592</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>10.09869972428456</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>9.348628828681569</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>5.83894776862752</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>5.526273305974115</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>10.37937927322926</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>8.463438483093935</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>11.1065125761782</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>17.27803661736976</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>11.81783546798393</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>17.35251044941575</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>5.851268497276351</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>4.898784603349327</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>14.89263220229951</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>11.88536863055326</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>24.18313175905807</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>6.773190832380038</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>26.0983341020975</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>6.469269485291335</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>9.529236907718456</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>7.133723174697082</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>8.833021882250037</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>12.71712973478465</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>12.23573196914217</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>11.67567015917973</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>10.5940460683284</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>9.92544727545733</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>6.035603265319736</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.998305643674399</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>12.23913897818449</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>9.529134765612321</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>9.79652882743045</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>7.760366810371636</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>5.581843514640525</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>12.71947111271831</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>6.396966360696069</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.484919885104517</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>9.276875703065102</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>8.002424602003801</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>10.82677703428953</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>8.425711113879714</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>12.12373723068464</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>8.25639339014964</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.244747846375134</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.776020626945012</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>15.88511879152658</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>9.362643719121465</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>21.84983921221857</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>9.941253248439523</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>13.66239542674528</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>5.43773972304129</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>7.209833658268622</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>7.56111414830869</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>11.37819519504716</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>11.00576723029559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>17.19191365567008</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>6.838473326719821</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>18.45334196122847</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>10.20984201297688</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>6.477595127761077</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>6.314313810443963</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>11.24490621215415</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>10.96148372956492</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>17.05659395723708</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>12.0975438090079</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>6.614282406026376</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>8.831508437770253</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>4.530622193805414</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>6.35539844899526</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>5.052957230665285</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>8.648415211929654</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>10.03146781266832</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>10.45711065679617</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>11.05365288305602</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>10.29986926978134</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>6.194283249339975</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>5.698170109035061</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>11.37649354288172</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>9.30157821765123</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>11.79819915186494</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>19.80474392314358</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>12.74381569664007</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>20.88165523449402</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>6.276562531510081</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>5.353800163665881</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>16.11855740212765</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>13.28247630049232</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>28.13335816950854</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>7.212979662411271</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>31.00738806463534</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>7.508770388666704</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>9.817961055781495</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>7.660778474203966</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>9.903007851523441</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>14.46346338096154</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>13.29324511244175</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>13.20437448163432</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>12.98968988339317</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>11.48781163180763</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>6.85595520831572</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>4.20317699425101</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>13.97222364101756</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>10.85806813612302</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>11.47062370868753</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>8.80238206151094</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>6.076742233794661</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>14.82660708016761</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>7.48235811996301</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.79842554113506</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>10.08512745409253</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>9.077466599907334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>11.91393919288386</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>9.63796689485298</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>13.44990326539603</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>10.16060308185121</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.833199133762719</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>6.460464174656465</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>17.54860107923356</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>10.57209668894812</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>25.72143630156694</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>11.14507302252957</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>15.48706260966753</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>6.302891451411881</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>7.730197599950088</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>7.802186060182834</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>12.48470849024153</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>12.38193650507863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>15.4580458698881</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>6.211679340483414</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>16.29606459262546</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>9.714080290030182</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>6.343807699236919</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>6.210490458622616</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>9.236904338227106</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>9.92443894130197</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>14.42851815566434</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>10.91113103853235</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>5.793217900263869</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>8.432762002686346</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>4.756050337045508</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>5.992385873737305</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>3.814501638415393</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>7.732652420906443</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>9.350767150961772</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>9.651623661181134</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>9.637292482186922</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>9.946224636361052</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>5.766948154724474</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>5.317777665707041</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>9.895128731393712</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>8.509394640359444</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>9.760759564212833</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>19.47312498009282</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>10.92483773218541</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>21.92077906598821</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>6.024925642747519</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>5.225595584906443</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>13.20113241231276</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>12.36159356892086</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>25.69695612087786</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>6.885877758486259</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>27.53846598277585</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>7.394982910039886</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>9.022307709497312</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>7.637345819932278</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>8.512914059861401</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>13.24126433735298</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>11.04801839491697</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>12.14413954369195</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>12.48231952403708</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>10.35135949622122</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>6.748186305570414</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.718605612209899</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>12.62328956843209</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>9.873702635011373</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>10.29990980523722</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>8.219260344893712</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>5.633262555764588</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>13.77367892960262</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>7.785699742783095</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.301062150292978</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>8.710801762605968</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>8.389096470168598</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>10.77223779705365</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>8.723578701299431</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>11.99566082208175</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>9.853242950859311</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.731473619300459</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>6.133786190214295</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>14.98200275251533</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>9.598854690474889</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>23.64431954112716</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>10.38003131229132</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>13.62706865643955</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>5.980451822391785</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>7.281770185965826</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>7.012364602862561</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>11.39311399895615</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>11.33130287429062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>16.83099082224334</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>8.301384768295605</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>18.85405081421015</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>11.99330892358881</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>10.23521377507538</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>8.775083779722166</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>10.27248165705154</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>12.18035922002671</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>17.60504440053177</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>16.43714572576795</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>8.184993844812567</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>14.02144234851022</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>8.257980984071366</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>8.969183312857325</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>5.46125994052116</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>11.27672150815319</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>11.92229742997117</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>17.94816739487601</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>13.62774313771158</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>15.15289391861191</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>9.50166810033474</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>8.146435235046255</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>13.80287750021031</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>12.87172610239457</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>14.62541942315943</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>28.46297164198114</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>16.3142143875196</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>34.03525443831938</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>9.012119417898077</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>6.573434382732103</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>21.35235146036752</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>18.62510930742532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>35.84681818929639</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>9.113758513986483</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>36.19623089936147</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>10.67370164874256</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>14.7631894452928</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>10.03503193087829</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>10.37595933589319</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>18.14352713763588</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>13.89069736727745</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>13.78838354330273</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>12.25455409386711</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>11.97318268254924</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>9.34596357603985</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>4.669748242193009</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>13.73920244876933</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>11.38024742199982</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>10.60947571316348</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>11.98013254324064</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>7.62855703390062</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>17.60747709163377</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>12.05256727401974</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>5.345590568416043</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>10.44654996141213</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>10.81005002654092</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>13.66559671083883</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>13.0526780628575</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>15.40703635193577</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>13.40225268106136</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>6.513552887988254</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>8.347056928103598</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>17.37188470182264</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>12.53715118922971</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>27.51486463110689</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>13.06116775942698</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>15.76067514527995</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>8.942506136876318</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>9.519669016236662</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>8.172521596964998</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>14.86285362113375</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>13.97632255814651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>263.8374623172285</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>76.36483807112745</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>342.8816857971597</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>168.4891803476712</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>136.7225483078291</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>188.0495440793693</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>164.0849938162428</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>191.4900361052326</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>558.0239068772244</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>118.1084411328338</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>149.9694248067208</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>260.5980276607952</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>44.24091424889775</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>127.1245069552951</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>170.2801237572421</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>204.0493350627156</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>153.9892439921405</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>316.0325592778554</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>220.5054683220042</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>329.3007317476322</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>312.5300311010596</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>495.5162528676719</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>159.0217459095384</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>283.8422904597003</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>317.6459042604947</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>214.3551023938435</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>308.4273787954726</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>232.3189885832026</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>136.3456417618927</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>201.2558254522282</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>236.3181335261124</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>235.238139253321</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>363.7503718313483</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>118.9776722971546</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>449.592330584117</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>89.22085509626959</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>387.4149778159444</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>512.9719918062256</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>134.0869745206783</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>293.7164534216768</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>177.0989791661932</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>124.8888809284672</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>240.5288565134224</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>78.10726102791705</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>78.33512349578086</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>96.83521475364614</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>137.2381374510078</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>133.2903504766335</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>81.99932084736247</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>82.62932086645833</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>57.71820921605649</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>123.4005430073912</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>51.12580796785187</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>74.94337375251052</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>99.3062486773897</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>81.58897490500294</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>195.3003983356321</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>120.7115685148401</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>258.5627937359059</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>190.2615653190142</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>46.17038166002931</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>133.2599909234341</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>303.8822622554908</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>178.3069943920495</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>244.7363003046148</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>134.905115576531</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>321.6377367054019</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>77.92628747587514</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>49.20082855213332</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>177.9041238531372</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>141.5352737842304</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>163.9779523217034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1163,6 +4627,696 @@
       </c>
       <c r="I10" s="6" t="n">
         <v>251.5787441843927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>0.05064343706300589</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0.01587253851979975</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.09608319823144784</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.07724900684009151</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.05801267740474392</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0.1018552001206298</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>0.01949166902207666</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0.05988681817168505</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>0.1737065967165178</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0.07639728127406492</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.03496539539229171</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.05296589606257174</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0.0740940292978105</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0.3132008017956578</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0.04704790117402013</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0.1103397002447049</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>0.04176059100015139</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.07523107728848383</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.02779019152295603</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.05502742173894604</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1161275164898532</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.497204365297342</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.02413859886630831</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1196113946005773</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>0.09514343865387875</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.1647943016437705</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.05920726086922112</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.08526148538882555</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.149034082770667</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.3124258152584373</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.06312437863098702</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1327129661736839</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0.2448837068547701</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.0350379424749796</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.3659983202243855</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.03582128827077513</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1725201754783178</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.6564052066532983</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.02906555048363352</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2199617414914514</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>0.06095373841708673</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.1244095035137369</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.1821980397960693</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.03337319461670832</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.07215189425846369</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2024525733085931</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.02677625087779406</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.100330742112636</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>0.03715604861806554</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.02988172002140244</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.02677371266235362</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.0495855112165216</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.05080530022665997</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.06668567148680982</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.01001823343657449</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.03870088538119821</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>0.05046065257957644</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.0420772273681691</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.08945882444682418</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1221294178596279</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.08371669116588221</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.1485570600659512</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.07418773119148825</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.08722680066821702</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0.09642420046775546</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0.09901734603415596</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.08357082450784425</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.05769202808932422</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.05481727991527174</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1774956675496568</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1110692591944948</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.09715522939407191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1517421441338176</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.02630880557857707</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09252576509900412</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.07374947597077647</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.08013587004342071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.08448360002562472</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05689515754877816</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.08083440262857125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1770709266557012</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.09017631958597155</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03512021767579121</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08274108768526683</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07132492809684421</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3654345265734698</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04158315152411463</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1233501653995942</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04641462507797667</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.08143555243001355</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02405115818258063</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06962222562231246</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1479033100805108</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5541606258659055</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02068714088661283</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1348963768779875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1671246216343865</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1932960820721873</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08578446474200985</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08788108267980593</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1872771550891452</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2489065936997842</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.104335602059225</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1535150859966491</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2834560252907223</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04090841565689612</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4171484059742143</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04625006730029962</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2028143970191586</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4901172710483431</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.08088485971056258</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2230827774285996</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1585378717107795</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1221196832831491</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.218794019110801</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02914568503295289</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1002546904749061</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1773971022828871</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.07392805692630028</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1257395869745394</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.09676788693822147</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03290155764224445</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03168690713713795</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05829289523198999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07850614617867402</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.05986570544014413</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02369615530195013</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.05453103626719459</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1168605211638311</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05788396934469031</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1297547937364265</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1592368103969924</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.109338402509026</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1436117426797294</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1658535416312442</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.12607711163742</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1149853447713647</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1125360108369137</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1110447169753515</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.06003609619809092</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06080810958831573</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1735376876535616</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1388531427050351</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1102573012469476</v>
       </c>
     </row>
   </sheetData>
@@ -1927,28 +6081,28 @@
           <t>Baseline</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="6" t="n">
         <v>8.27573862991423</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="6" t="n">
         <v>1.239185958748322</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="6" t="n">
         <v>5.410202146058666</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="6" t="n">
         <v>6.897716403776094</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="6" t="n">
         <v>5.35921756226233</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="6" t="n">
         <v>2.569466072269428</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="6" t="n">
         <v>4.032419920197533</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="6" t="n">
         <v>4.826278099032372</v>
       </c>
     </row>
@@ -1958,28 +6112,28 @@
           <t>TASys02</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="6" t="n">
         <v>7.656431901147499</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="6" t="n">
         <v>0.8009267428267677</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="6" t="n">
         <v>2.769718126283976</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="6" t="n">
         <v>13.03413190292482</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="6" t="n">
         <v>3.600051196534423</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="6" t="n">
         <v>14.17697235918456</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="6" t="n">
         <v>1.56735493850978</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="6" t="n">
         <v>6.229369595344546</v>
       </c>
     </row>
@@ -1989,28 +6143,28 @@
           <t>TASys03</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="6" t="n">
         <v>2.947276765590871</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="6" t="n">
         <v>4.474834425255146</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="6" t="n">
         <v>7.903047741629678</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="6" t="n">
         <v>8.96366665986173</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="6" t="n">
         <v>14.86558768332708</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="6" t="n">
         <v>78.29590225276723</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="6" t="n">
         <v>3.763510699734908</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="6" t="n">
         <v>17.31626088973809</v>
       </c>
     </row>
@@ -2020,28 +6174,28 @@
           <t>TASys08</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="6" t="n">
         <v>9.957417742769863</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="6" t="n">
         <v>2.671446905994195</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="6" t="n">
         <v>14.57952801307435</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="6" t="n">
         <v>0.8423388379323065</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="6" t="n">
         <v>8.026268544802122</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="6" t="n">
         <v>13.14121276264902</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="6" t="n">
         <v>5.786416035530564</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="6" t="n">
         <v>7.857804120393204</v>
       </c>
     </row>
@@ -2051,28 +6205,28 @@
           <t>TASys11</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="6" t="n">
         <v>5.443235088101162</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="6" t="n">
         <v>1.71625135713731</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="6" t="n">
         <v>12.23305267372734</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="6" t="n">
         <v>1.752333457909344</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="6" t="n">
         <v>18.54604286415724</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="6" t="n">
         <v>25.59642827928479</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="6" t="n">
         <v>6.867102016781772</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="6" t="n">
         <v>10.30777796244271</v>
       </c>
     </row>
@@ -2082,28 +6236,28 @@
           <t>TBSys09</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="6" t="n">
         <v>11.87874166010218</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="6" t="n">
         <v>2.780576615369689</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="6" t="n">
         <v>31.13283769542645</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="6" t="n">
         <v>2.479529180911555</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="6" t="n">
         <v>5.785095305937475</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="6" t="n">
         <v>4.183057668186834</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="6" t="n">
         <v>2.811179687698058</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="6" t="n">
         <v>8.721573973376033</v>
       </c>
     </row>
@@ -2113,28 +6267,28 @@
           <t>TBSys14</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="6" t="n">
         <v>3.852842075826814</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="6" t="n">
         <v>2.274531943311374</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="6" t="n">
         <v>1.982313488386581</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="6" t="n">
         <v>14.36665772433868</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="6" t="n">
         <v>2.878938394835387</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="6" t="n">
         <v>1.420322856238258</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="6" t="n">
         <v>1.435524716117413</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="6" t="n">
         <v>4.03016159986493</v>
       </c>
     </row>
@@ -2144,28 +6298,28 @@
           <t>TBSys18</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="6" t="n">
         <v>11.75115243175944</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="6" t="n">
         <v>2.809749368245125</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="6" t="n">
         <v>22.77313982133602</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="6" t="n">
         <v>29.74987654453253</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="6" t="n">
         <v>9.789144845774672</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="6" t="n">
         <v>10.54115206546034</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="6" t="n">
         <v>14.88940877510576</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="6" t="n">
         <v>14.61480340745912</v>
       </c>
     </row>
@@ -2175,28 +6329,28 @@
           <t>TBSys24</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="6" t="n">
         <v>2.720943726338476</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="6" t="n">
         <v>5.636765353827471</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="6" t="n">
         <v>9.850629320381643</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="6" t="n">
         <v>4.542625936088925</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="6" t="n">
         <v>5.098881872789747</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="6" t="n">
         <v>14.51397260125434</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="6" t="n">
         <v>15.14657023497577</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="6" t="n">
         <v>8.215769863665196</v>
       </c>
     </row>
@@ -2893,4 +7047,694 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>11.63144020513396</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>5.260146454217875</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>14.14415021035646</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>8.067937628929513</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>6.413748789578037</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>9.549368590337906</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>6.505670993752204</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>8.796066124615136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>12.87981485326215</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>6.385910620994835</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>4.178368477730956</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>9.001254226129333</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>4.775956273515746</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>7.481131721130609</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>2.959694222619163</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>6.80887577076897</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>5.002978225328107</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>10.32930597783101</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>5.799407362539483</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>9.896165816366548</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>9.783051927686756</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>12.4116300058446</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>4.318241238322088</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>8.220111507702656</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>7.823604532596718</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>13.00256792652928</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>6.173525365891237</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>13.68507732626807</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>7.069648602686428</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>8.296025041817927</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>5.125083097484449</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>8.73936169903916</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>16.88095919808114</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>6.329618409022018</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>19.8910216472795</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>6.443086859885426</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>13.7017136307006</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>13.46523200161643</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>7.339734217123237</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>12.00733799481548</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>7.510924382635039</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>8.131321797002968</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>8.643222611899731</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>5.90553460947929</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>5.598879868455043</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>4.875026822623127</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.818976603582712</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>6.211983813668273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>5.926612456726289</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>5.548128463824042</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>4.536900731722895</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>8.350183481838229</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>4.997689448416821</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.802168132396673</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>4.323800203720367</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>5.497926131235046</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>6.933799814413675</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>5.518483879410539</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>9.340379806720065</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>8.30001273648169</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.01756663179745</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.391188814704009</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>7.210341051775231</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.673110390757523</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>14.91892808958411</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>5.835180083495089</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>12.71283036843688</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>5.282998303803893</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>5.342046928234268</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>6.149257353179266</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>5.214191504614092</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>7.922204661621087</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>11.54648169468669</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>5.533742552409961</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>13.28417963857567</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>7.867837706910535</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>6.836741146516516</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>9.08589263596221</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>6.754701973399449</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>8.70136819263729</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>12.70415749807137</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>6.486137735940673</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>4.403771218170803</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>8.027666424956877</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>4.953973095324386</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>7.176713755344409</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>3.398378592993652</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>6.735828331543167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>5.56251785666889</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>9.470229689725372</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>6.394117806075442</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>9.093869770066235</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>8.981837113667936</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>10.35713396358361</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>5.155660170835262</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>7.859338052946106</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>8.271114619746356</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>13.23277337760021</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>6.907637862065613</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>13.4370355078687</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>7.293837775474117</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>8.216891181083952</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>6.523492703319377</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>9.126111861022618</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>16.91345949288365</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>6.208105869336492</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>19.3446889876634</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>6.263590834638492</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>13.49001387024376</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>11.33141895177233</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>7.063579777885849</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>11.51640825491771</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>7.915160727419305</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>7.746730440433282</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>8.393085791071428</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>6.035530854048915</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>5.654330906282439</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>4.5549083005168</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>3.722339664602686</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>6.288869526339265</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>6.496797601666287</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>5.863166065239099</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>4.735149612341615</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>8.989165222643422</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>5.523084100880567</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.869346751473756</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>5.115301766648031</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>5.941715874413254</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>7.078486665982652</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>5.86127421787846</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>9.293395835235742</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>8.210160845436917</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.508522136317893</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.583480116252872</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>8.012893174668363</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.9354589988247</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>14.98513654961907</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>6.340497833393982</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>12.11210870723586</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>5.273637048684506</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>5.909462591189893</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>6.218768365113604</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>5.809616841493437</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>8.092746848104337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/excel_files/fadScores.xlsx
+++ b/excel_files/fadScores.xlsx
@@ -25,6 +25,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wavlm-base-plus" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wavlm-base" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wavlm-large" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="joint-scat" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3886,6 +3887,351 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6412.108822858143</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16177.61467798351</v>
+      </c>
+      <c r="D2" t="n">
+        <v>226877.2591667986</v>
+      </c>
+      <c r="E2" t="n">
+        <v>39450.46834742428</v>
+      </c>
+      <c r="F2" t="n">
+        <v>417760.8205551166</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1246.460676927177</v>
+      </c>
+      <c r="H2" t="n">
+        <v>58884.08675310281</v>
+      </c>
+      <c r="I2" t="n">
+        <v>109544.1170000301</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2164.677705544587</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11466.7227572848</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12766.89027288463</v>
+      </c>
+      <c r="E3" t="n">
+        <v>120962.860210016</v>
+      </c>
+      <c r="F3" t="n">
+        <v>345588.3932784392</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9572.154394896079</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34048.72736894032</v>
+      </c>
+      <c r="I3" t="n">
+        <v>76652.91799828652</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8326.955484781982</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7925.430432487436</v>
+      </c>
+      <c r="D4" t="n">
+        <v>228332.4501374071</v>
+      </c>
+      <c r="E4" t="n">
+        <v>127955.5979676959</v>
+      </c>
+      <c r="F4" t="n">
+        <v>795967.2159420585</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9027.467967408056</v>
+      </c>
+      <c r="H4" t="n">
+        <v>101063.4592286405</v>
+      </c>
+      <c r="I4" t="n">
+        <v>182656.9395943542</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5475.915396630806</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3494.91337050969</v>
+      </c>
+      <c r="D5" t="n">
+        <v>165748.3614948218</v>
+      </c>
+      <c r="E5" t="n">
+        <v>111226.6460575687</v>
+      </c>
+      <c r="F5" t="n">
+        <v>831672.3790306748</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7507.48932138861</v>
+      </c>
+      <c r="H5" t="n">
+        <v>101363.203904979</v>
+      </c>
+      <c r="I5" t="n">
+        <v>175212.7012252247</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7599.925545613903</v>
+      </c>
+      <c r="C6" t="n">
+        <v>150297.0603118276</v>
+      </c>
+      <c r="D6" t="n">
+        <v>297024.9416328784</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24044.90400988286</v>
+      </c>
+      <c r="F6" t="n">
+        <v>837198.6016055684</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8100.835438509881</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4753.224838072987</v>
+      </c>
+      <c r="I6" t="n">
+        <v>189859.9276260506</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4490.060552633944</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7256.478243895912</v>
+      </c>
+      <c r="D7" t="n">
+        <v>154775210.6032548</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94578.96995438276</v>
+      </c>
+      <c r="F7" t="n">
+        <v>572297.5011757913</v>
+      </c>
+      <c r="G7" t="n">
+        <v>197.2951573284226</v>
+      </c>
+      <c r="H7" t="n">
+        <v>95317.25800536814</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22221335.45233488</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5868.400010851554</v>
+      </c>
+      <c r="C8" t="n">
+        <v>255.1290328809373</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3120145.402389309</v>
+      </c>
+      <c r="E8" t="n">
+        <v>105883.8738016963</v>
+      </c>
+      <c r="F8" t="n">
+        <v>761575.5037789284</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2405.658471966781</v>
+      </c>
+      <c r="H8" t="n">
+        <v>66856.95550418066</v>
+      </c>
+      <c r="I8" t="n">
+        <v>580427.2747128305</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>956.6505526141482</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1110.401407768937</v>
+      </c>
+      <c r="D9" t="n">
+        <v>270358.8138694638</v>
+      </c>
+      <c r="E9" t="n">
+        <v>108498.1348472907</v>
+      </c>
+      <c r="F9" t="n">
+        <v>812192.4827031174</v>
+      </c>
+      <c r="G9" t="n">
+        <v>928.9746406285522</v>
+      </c>
+      <c r="H9" t="n">
+        <v>88940.92322370921</v>
+      </c>
+      <c r="I9" t="n">
+        <v>183283.7687492275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3290.537615515859</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2559.433608909461</v>
+      </c>
+      <c r="D10" t="n">
+        <v>129508.1255027545</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100784.188118854</v>
+      </c>
+      <c r="F10" t="n">
+        <v>701252.0431087858</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2720.61437615156</v>
+      </c>
+      <c r="H10" t="n">
+        <v>59086.40307576059</v>
+      </c>
+      <c r="I10" t="n">
+        <v>142743.0493438188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/excel_files/fadScores.xlsx
+++ b/excel_files/fadScores.xlsx
@@ -8,24 +8,26 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="clap-2023" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="clap-laion-audio" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="clap-laion-music" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="vggish" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="encodec-emb" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="encodec-emb-48k" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dac-44kHz" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdpam-acoustic" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdpam-content" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="panns-cnn14-32k" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="panns-cnn14-16k" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="panns-wavegram-logmel" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="w2v2-base" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="w2v2-large" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wavlm-base-plus" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wavlm-base" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wavlm-large" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="joint-scat" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="clap-2023-emb128" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="clap-laion-audio" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="clap-laion-music" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="vggish" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MERT-v1-95M" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="encodec-emb" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="encodec-emb-48k" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dac-44kHz" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdpam-acoustic" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdpam-content" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="panns-cnn14-32k" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="panns-cnn14-16k" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="panns-wavegram-logmel" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="panns-wavegram-logmel-1s" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="panns-wavegram-logmel-emb128" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="w2v2-base" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="w2v2-large" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wavlm-base-plus" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wavlm-base" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wavlm-large" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -850,28 +852,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1517421441338176</v>
+        <v>0.05064343706300589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02630880557857707</v>
+        <v>0.01587253851979975</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09252576509900412</v>
+        <v>0.09608319823144784</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07374947597077647</v>
+        <v>0.07724900684009151</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08013587004342071</v>
+        <v>0.05801267740474392</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08448360002562472</v>
+        <v>0.1018552001206298</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05689515754877816</v>
+        <v>0.01949166902207666</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08083440262857125</v>
+        <v>0.05988681817168505</v>
       </c>
     </row>
     <row r="3">
@@ -881,28 +883,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1770709266557012</v>
+        <v>0.1737065967165178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09017631958597155</v>
+        <v>0.07639728127406492</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03512021767579121</v>
+        <v>0.03496539539229171</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08274108768526683</v>
+        <v>0.05296589606257174</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07132492809684421</v>
+        <v>0.0740940292978105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3654345265734698</v>
+        <v>0.3132008017956578</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04158315152411463</v>
+        <v>0.04704790117402013</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1233501653995942</v>
+        <v>0.1103397002447049</v>
       </c>
     </row>
     <row r="4">
@@ -912,28 +914,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04641462507797667</v>
+        <v>0.04176059100015139</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08143555243001355</v>
+        <v>0.07523107728848383</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02405115818258063</v>
+        <v>0.02779019152295603</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06962222562231246</v>
+        <v>0.05502742173894604</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1479033100805108</v>
+        <v>0.1161275164898532</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5541606258659055</v>
+        <v>0.497204365297342</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02068714088661283</v>
+        <v>0.02413859886630831</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1348963768779875</v>
+        <v>0.1196113946005773</v>
       </c>
     </row>
     <row r="5">
@@ -943,28 +945,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1671246216343865</v>
+        <v>0.09514343865387875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1932960820721873</v>
+        <v>0.1647943016437705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08578446474200985</v>
+        <v>0.05920726086922112</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08788108267980593</v>
+        <v>0.08526148538882555</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1872771550891452</v>
+        <v>0.149034082770667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2489065936997842</v>
+        <v>0.3124258152584373</v>
       </c>
       <c r="H5" t="n">
-        <v>0.104335602059225</v>
+        <v>0.06312437863098702</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1535150859966491</v>
+        <v>0.1327129661736839</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +976,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2834560252907223</v>
+        <v>0.2448837068547701</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04090841565689612</v>
+        <v>0.0350379424749796</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4171484059742143</v>
+        <v>0.3659983202243855</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04625006730029962</v>
+        <v>0.03582128827077513</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2028143970191586</v>
+        <v>0.1725201754783178</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4901172710483431</v>
+        <v>0.6564052066532983</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08088485971056258</v>
+        <v>0.02906555048363352</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2230827774285996</v>
+        <v>0.2199617414914514</v>
       </c>
     </row>
     <row r="7">
@@ -1005,28 +1007,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1585378717107795</v>
+        <v>0.06095373841708673</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1221196832831491</v>
+        <v>0.1244095035137369</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218794019110801</v>
+        <v>0.1821980397960693</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02914568503295289</v>
+        <v>0.03337319461670832</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1002546904749061</v>
+        <v>0.07215189425846369</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1773971022828871</v>
+        <v>0.2024525733085931</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07392805692630028</v>
+        <v>0.02677625087779406</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1257395869745394</v>
+        <v>0.100330742112636</v>
       </c>
     </row>
     <row r="8">
@@ -1036,28 +1038,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09676788693822147</v>
+        <v>0.03715604861806554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03290155764224445</v>
+        <v>0.02988172002140244</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03168690713713795</v>
+        <v>0.02677371266235362</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05829289523198999</v>
+        <v>0.0495855112165216</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07850614617867402</v>
+        <v>0.05080530022665997</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05986570544014413</v>
+        <v>0.06668567148680982</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02369615530195013</v>
+        <v>0.01001823343657449</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05453103626719459</v>
+        <v>0.03870088538119821</v>
       </c>
     </row>
     <row r="9">
@@ -1067,28 +1069,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1168605211638311</v>
+        <v>0.05046065257957644</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05788396934469031</v>
+        <v>0.0420772273681691</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1297547937364265</v>
+        <v>0.08945882444682418</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1592368103969924</v>
+        <v>0.1221294178596279</v>
       </c>
       <c r="F9" t="n">
-        <v>0.109338402509026</v>
+        <v>0.08371669116588221</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1436117426797294</v>
+        <v>0.1485570600659512</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1658535416312442</v>
+        <v>0.07418773119148825</v>
       </c>
       <c r="I9" t="n">
-        <v>0.12607711163742</v>
+        <v>0.08722680066821702</v>
       </c>
     </row>
     <row r="10">
@@ -1098,28 +1100,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1149853447713647</v>
+        <v>0.09642420046775546</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1125360108369137</v>
+        <v>0.09901734603415596</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1110447169753515</v>
+        <v>0.08357082450784425</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06003609619809092</v>
+        <v>0.05769202808932422</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06080810958831573</v>
+        <v>0.05481727991527174</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1735376876535616</v>
+        <v>0.1774956675496568</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1388531427050351</v>
+        <v>0.1110692591944948</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1102573012469476</v>
+        <v>0.09715522939407191</v>
       </c>
     </row>
   </sheetData>
@@ -1195,28 +1197,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.75965798216377</v>
+        <v>0.1517421441338176</v>
       </c>
       <c r="C2" t="n">
-        <v>37.54057636993188</v>
+        <v>0.02630880557857707</v>
       </c>
       <c r="D2" t="n">
-        <v>61.23306177728331</v>
+        <v>0.09252576509900412</v>
       </c>
       <c r="E2" t="n">
-        <v>73.70398312056017</v>
+        <v>0.07374947597077647</v>
       </c>
       <c r="F2" t="n">
-        <v>26.6811304474322</v>
+        <v>0.08013587004342071</v>
       </c>
       <c r="G2" t="n">
-        <v>41.23593310192987</v>
+        <v>0.08448360002562472</v>
       </c>
       <c r="H2" t="n">
-        <v>84.62500165855407</v>
+        <v>0.05689515754877816</v>
       </c>
       <c r="I2" t="n">
-        <v>54.39704920826504</v>
+        <v>0.08083440262857125</v>
       </c>
     </row>
     <row r="3">
@@ -1226,28 +1228,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.20624172772447</v>
+        <v>0.1770709266557012</v>
       </c>
       <c r="C3" t="n">
-        <v>41.71457577769478</v>
+        <v>0.09017631958597155</v>
       </c>
       <c r="D3" t="n">
-        <v>34.28977449264332</v>
+        <v>0.03512021767579121</v>
       </c>
       <c r="E3" t="n">
-        <v>37.55489140809924</v>
+        <v>0.08274108768526683</v>
       </c>
       <c r="F3" t="n">
-        <v>19.84037195609686</v>
+        <v>0.07132492809684421</v>
       </c>
       <c r="G3" t="n">
-        <v>31.15660901133873</v>
+        <v>0.3654345265734698</v>
       </c>
       <c r="H3" t="n">
-        <v>41.02255058228005</v>
+        <v>0.04158315152411463</v>
       </c>
       <c r="I3" t="n">
-        <v>34.8264307079825</v>
+        <v>0.1233501653995942</v>
       </c>
     </row>
     <row r="4">
@@ -1257,28 +1259,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.54711329819489</v>
+        <v>0.04641462507797667</v>
       </c>
       <c r="C4" t="n">
-        <v>40.04091274994846</v>
+        <v>0.08143555243001355</v>
       </c>
       <c r="D4" t="n">
-        <v>36.57407021178956</v>
+        <v>0.02405115818258063</v>
       </c>
       <c r="E4" t="n">
-        <v>32.82605857491977</v>
+        <v>0.06962222562231246</v>
       </c>
       <c r="F4" t="n">
-        <v>22.11719746407142</v>
+        <v>0.1479033100805108</v>
       </c>
       <c r="G4" t="n">
-        <v>33.63155398067079</v>
+        <v>0.5541606258659055</v>
       </c>
       <c r="H4" t="n">
-        <v>50.71895747009196</v>
+        <v>0.02068714088661283</v>
       </c>
       <c r="I4" t="n">
-        <v>35.35083767852669</v>
+        <v>0.1348963768779875</v>
       </c>
     </row>
     <row r="5">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.04397044721061</v>
+        <v>0.1671246216343865</v>
       </c>
       <c r="C5" t="n">
-        <v>39.23158481107827</v>
+        <v>0.1932960820721873</v>
       </c>
       <c r="D5" t="n">
-        <v>57.73583544157403</v>
+        <v>0.08578446474200985</v>
       </c>
       <c r="E5" t="n">
-        <v>23.55692162053606</v>
+        <v>0.08788108267980593</v>
       </c>
       <c r="F5" t="n">
-        <v>17.1135944868366</v>
+        <v>0.1872771550891452</v>
       </c>
       <c r="G5" t="n">
-        <v>28.32652275828089</v>
+        <v>0.2489065936997842</v>
       </c>
       <c r="H5" t="n">
-        <v>78.42415655500054</v>
+        <v>0.104335602059225</v>
       </c>
       <c r="I5" t="n">
-        <v>41.06179801721671</v>
+        <v>0.1535150859966491</v>
       </c>
     </row>
     <row r="6">
@@ -1319,28 +1321,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.51962685995004</v>
+        <v>0.2834560252907223</v>
       </c>
       <c r="C6" t="n">
-        <v>35.6196924746237</v>
+        <v>0.04090841565689612</v>
       </c>
       <c r="D6" t="n">
-        <v>63.11268868501027</v>
+        <v>0.4171484059742143</v>
       </c>
       <c r="E6" t="n">
-        <v>48.69865263349361</v>
+        <v>0.04625006730029962</v>
       </c>
       <c r="F6" t="n">
-        <v>32.81799344976033</v>
+        <v>0.2028143970191586</v>
       </c>
       <c r="G6" t="n">
-        <v>38.00733718937155</v>
+        <v>0.4901172710483431</v>
       </c>
       <c r="H6" t="n">
-        <v>60.87626142907057</v>
+        <v>0.08088485971056258</v>
       </c>
       <c r="I6" t="n">
-        <v>46.5217503887543</v>
+        <v>0.2230827774285996</v>
       </c>
     </row>
     <row r="7">
@@ -1350,28 +1352,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.52779588470237</v>
+        <v>0.1585378717107795</v>
       </c>
       <c r="C7" t="n">
-        <v>36.87440745848997</v>
+        <v>0.1221196832831491</v>
       </c>
       <c r="D7" t="n">
-        <v>38.47305732833379</v>
+        <v>0.218794019110801</v>
       </c>
       <c r="E7" t="n">
-        <v>32.74352124669872</v>
+        <v>0.02914568503295289</v>
       </c>
       <c r="F7" t="n">
-        <v>22.96149949134174</v>
+        <v>0.1002546904749061</v>
       </c>
       <c r="G7" t="n">
-        <v>21.95487781234146</v>
+        <v>0.1773971022828871</v>
       </c>
       <c r="H7" t="n">
-        <v>43.12201216789487</v>
+        <v>0.07392805692630028</v>
       </c>
       <c r="I7" t="n">
-        <v>33.66531019854327</v>
+        <v>0.1257395869745394</v>
       </c>
     </row>
     <row r="8">
@@ -1381,28 +1383,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.39176825291086</v>
+        <v>0.09676788693822147</v>
       </c>
       <c r="C8" t="n">
-        <v>42.98863682347503</v>
+        <v>0.03290155764224445</v>
       </c>
       <c r="D8" t="n">
-        <v>40.97936472408583</v>
+        <v>0.03168690713713795</v>
       </c>
       <c r="E8" t="n">
-        <v>69.00537277486346</v>
+        <v>0.05829289523198999</v>
       </c>
       <c r="F8" t="n">
-        <v>25.60706295623962</v>
+        <v>0.07850614617867402</v>
       </c>
       <c r="G8" t="n">
-        <v>28.08849527297067</v>
+        <v>0.05986570544014413</v>
       </c>
       <c r="H8" t="n">
-        <v>58.01895047525813</v>
+        <v>0.02369615530195013</v>
       </c>
       <c r="I8" t="n">
-        <v>42.72566446854337</v>
+        <v>0.05453103626719459</v>
       </c>
     </row>
     <row r="9">
@@ -1412,28 +1414,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.03549321526444</v>
+        <v>0.1168605211638311</v>
       </c>
       <c r="C9" t="n">
-        <v>44.29597142819983</v>
+        <v>0.05788396934469031</v>
       </c>
       <c r="D9" t="n">
-        <v>56.59472601858081</v>
+        <v>0.1297547937364265</v>
       </c>
       <c r="E9" t="n">
-        <v>92.88656524206461</v>
+        <v>0.1592368103969924</v>
       </c>
       <c r="F9" t="n">
-        <v>23.05785584277817</v>
+        <v>0.109338402509026</v>
       </c>
       <c r="G9" t="n">
-        <v>44.93781479956782</v>
+        <v>0.1436117426797294</v>
       </c>
       <c r="H9" t="n">
-        <v>64.52274830036657</v>
+        <v>0.1658535416312442</v>
       </c>
       <c r="I9" t="n">
-        <v>52.61873926383175</v>
+        <v>0.12607711163742</v>
       </c>
     </row>
     <row r="10">
@@ -1443,28 +1445,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57.22403464590684</v>
+        <v>0.1149853447713647</v>
       </c>
       <c r="C10" t="n">
-        <v>36.64520871070591</v>
+        <v>0.1125360108369137</v>
       </c>
       <c r="D10" t="n">
-        <v>76.02762162143321</v>
+        <v>0.1110447169753515</v>
       </c>
       <c r="E10" t="n">
-        <v>52.64918446569087</v>
+        <v>0.06003609619809092</v>
       </c>
       <c r="F10" t="n">
-        <v>19.14062539160405</v>
+        <v>0.06080810958831573</v>
       </c>
       <c r="G10" t="n">
-        <v>36.93163320565105</v>
+        <v>0.1735376876535616</v>
       </c>
       <c r="H10" t="n">
-        <v>42.95342839743032</v>
+        <v>0.1388531427050351</v>
       </c>
       <c r="I10" t="n">
-        <v>45.93881949120318</v>
+        <v>0.1102573012469476</v>
       </c>
     </row>
   </sheetData>
@@ -1540,28 +1542,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.60971438176472</v>
+        <v>55.75965798216377</v>
       </c>
       <c r="C2" t="n">
-        <v>78.25005057553042</v>
+        <v>37.54057636993188</v>
       </c>
       <c r="D2" t="n">
-        <v>93.95854456189272</v>
+        <v>61.23306177728331</v>
       </c>
       <c r="E2" t="n">
-        <v>66.63509800592564</v>
+        <v>73.70398312056017</v>
       </c>
       <c r="F2" t="n">
-        <v>44.82079479187121</v>
+        <v>26.6811304474322</v>
       </c>
       <c r="G2" t="n">
-        <v>62.62605229807027</v>
+        <v>41.23593310192987</v>
       </c>
       <c r="H2" t="n">
-        <v>111.6726801114124</v>
+        <v>84.62500165855407</v>
       </c>
       <c r="I2" t="n">
-        <v>75.93899067520962</v>
+        <v>54.39704920826504</v>
       </c>
     </row>
     <row r="3">
@@ -1571,28 +1573,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.94965526724295</v>
+        <v>38.20624172772447</v>
       </c>
       <c r="C3" t="n">
-        <v>81.67675924927173</v>
+        <v>41.71457577769478</v>
       </c>
       <c r="D3" t="n">
-        <v>79.47073962336412</v>
+        <v>34.28977449264332</v>
       </c>
       <c r="E3" t="n">
-        <v>47.40955060945117</v>
+        <v>37.55489140809924</v>
       </c>
       <c r="F3" t="n">
-        <v>28.0961404960227</v>
+        <v>19.84037195609686</v>
       </c>
       <c r="G3" t="n">
-        <v>39.60636952819615</v>
+        <v>31.15660901133873</v>
       </c>
       <c r="H3" t="n">
-        <v>82.83696237470957</v>
+        <v>41.02255058228005</v>
       </c>
       <c r="I3" t="n">
-        <v>58.86373959260835</v>
+        <v>34.8264307079825</v>
       </c>
     </row>
     <row r="4">
@@ -1602,28 +1604,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.81468511576429</v>
+        <v>31.54711329819489</v>
       </c>
       <c r="C4" t="n">
-        <v>73.17253153045489</v>
+        <v>40.04091274994846</v>
       </c>
       <c r="D4" t="n">
-        <v>76.9927182557812</v>
+        <v>36.57407021178956</v>
       </c>
       <c r="E4" t="n">
-        <v>42.97013190902607</v>
+        <v>32.82605857491977</v>
       </c>
       <c r="F4" t="n">
-        <v>28.07253570153635</v>
+        <v>22.11719746407142</v>
       </c>
       <c r="G4" t="n">
-        <v>46.36030910451439</v>
+        <v>33.63155398067079</v>
       </c>
       <c r="H4" t="n">
-        <v>91.24751237872199</v>
+        <v>50.71895747009196</v>
       </c>
       <c r="I4" t="n">
-        <v>58.09006057082845</v>
+        <v>35.35083767852669</v>
       </c>
     </row>
     <row r="5">
@@ -1633,28 +1635,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55.64764550451378</v>
+        <v>43.04397044721061</v>
       </c>
       <c r="C5" t="n">
-        <v>75.5270766390731</v>
+        <v>39.23158481107827</v>
       </c>
       <c r="D5" t="n">
-        <v>91.48469703322748</v>
+        <v>57.73583544157403</v>
       </c>
       <c r="E5" t="n">
-        <v>44.08369984466759</v>
+        <v>23.55692162053606</v>
       </c>
       <c r="F5" t="n">
-        <v>23.92115943673048</v>
+        <v>17.1135944868366</v>
       </c>
       <c r="G5" t="n">
-        <v>43.32214161446586</v>
+        <v>28.32652275828089</v>
       </c>
       <c r="H5" t="n">
-        <v>112.0433209640902</v>
+        <v>78.42415655500054</v>
       </c>
       <c r="I5" t="n">
-        <v>63.71853443382407</v>
+        <v>41.06179801721671</v>
       </c>
     </row>
     <row r="6">
@@ -1664,28 +1666,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.59693057133458</v>
+        <v>46.51962685995004</v>
       </c>
       <c r="C6" t="n">
-        <v>54.18264857461732</v>
+        <v>35.6196924746237</v>
       </c>
       <c r="D6" t="n">
-        <v>89.40681783640244</v>
+        <v>63.11268868501027</v>
       </c>
       <c r="E6" t="n">
-        <v>44.36864160392672</v>
+        <v>48.69865263349361</v>
       </c>
       <c r="F6" t="n">
-        <v>33.35587537434517</v>
+        <v>32.81799344976033</v>
       </c>
       <c r="G6" t="n">
-        <v>47.01616517011212</v>
+        <v>38.00733718937155</v>
       </c>
       <c r="H6" t="n">
-        <v>68.79986118787042</v>
+        <v>60.87626142907057</v>
       </c>
       <c r="I6" t="n">
-        <v>57.24670575980125</v>
+        <v>46.5217503887543</v>
       </c>
     </row>
     <row r="7">
@@ -1695,28 +1697,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.78194210948266</v>
+        <v>39.52779588470237</v>
       </c>
       <c r="C7" t="n">
-        <v>75.13198937881842</v>
+        <v>36.87440745848997</v>
       </c>
       <c r="D7" t="n">
-        <v>80.29951041199779</v>
+        <v>38.47305732833379</v>
       </c>
       <c r="E7" t="n">
-        <v>47.52093000649053</v>
+        <v>32.74352124669872</v>
       </c>
       <c r="F7" t="n">
-        <v>33.21974164192116</v>
+        <v>22.96149949134174</v>
       </c>
       <c r="G7" t="n">
-        <v>40.00031868620977</v>
+        <v>21.95487781234146</v>
       </c>
       <c r="H7" t="n">
-        <v>85.29841598771533</v>
+        <v>43.12201216789487</v>
       </c>
       <c r="I7" t="n">
-        <v>59.46469260323367</v>
+        <v>33.66531019854327</v>
       </c>
     </row>
     <row r="8">
@@ -1726,28 +1728,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.21575021224888</v>
+        <v>34.39176825291086</v>
       </c>
       <c r="C8" t="n">
-        <v>77.46193164892142</v>
+        <v>42.98863682347503</v>
       </c>
       <c r="D8" t="n">
-        <v>77.56045611377208</v>
+        <v>40.97936472408583</v>
       </c>
       <c r="E8" t="n">
-        <v>64.03450098512366</v>
+        <v>69.00537277486346</v>
       </c>
       <c r="F8" t="n">
-        <v>36.18934394869943</v>
+        <v>25.60706295623962</v>
       </c>
       <c r="G8" t="n">
-        <v>39.06980053116847</v>
+        <v>28.08849527297067</v>
       </c>
       <c r="H8" t="n">
-        <v>101.4432343945452</v>
+        <v>58.01895047525813</v>
       </c>
       <c r="I8" t="n">
-        <v>63.71071683349702</v>
+        <v>42.72566446854337</v>
       </c>
     </row>
     <row r="9">
@@ -1757,28 +1759,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.27767345824913</v>
+        <v>42.03549321526444</v>
       </c>
       <c r="C9" t="n">
-        <v>83.69965067967259</v>
+        <v>44.29597142819983</v>
       </c>
       <c r="D9" t="n">
-        <v>96.88574351666858</v>
+        <v>56.59472601858081</v>
       </c>
       <c r="E9" t="n">
-        <v>82.99727130447931</v>
+        <v>92.88656524206461</v>
       </c>
       <c r="F9" t="n">
-        <v>31.74611867321057</v>
+        <v>23.05785584277817</v>
       </c>
       <c r="G9" t="n">
-        <v>63.16349952446732</v>
+        <v>44.93781479956782</v>
       </c>
       <c r="H9" t="n">
-        <v>98.48845572626539</v>
+        <v>64.52274830036657</v>
       </c>
       <c r="I9" t="n">
-        <v>74.46548755471612</v>
+        <v>52.61873926383175</v>
       </c>
     </row>
     <row r="10">
@@ -1788,28 +1790,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.18287659799775</v>
+        <v>57.22403464590684</v>
       </c>
       <c r="C10" t="n">
-        <v>74.82049273654422</v>
+        <v>36.64520871070591</v>
       </c>
       <c r="D10" t="n">
-        <v>96.88763510923731</v>
+        <v>76.02762162143321</v>
       </c>
       <c r="E10" t="n">
-        <v>57.27347261399665</v>
+        <v>52.64918446569087</v>
       </c>
       <c r="F10" t="n">
-        <v>29.69390278186691</v>
+        <v>19.14062539160405</v>
       </c>
       <c r="G10" t="n">
-        <v>50.9965242534691</v>
+        <v>36.93163320565105</v>
       </c>
       <c r="H10" t="n">
-        <v>87.11604084612992</v>
+        <v>42.95342839743032</v>
       </c>
       <c r="I10" t="n">
-        <v>67.99584927703454</v>
+        <v>45.93881949120318</v>
       </c>
     </row>
   </sheetData>
@@ -1885,28 +1887,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.068688895948</v>
+        <v>73.60971438176472</v>
       </c>
       <c r="C2" t="n">
-        <v>29.48784029033432</v>
+        <v>78.25005057553042</v>
       </c>
       <c r="D2" t="n">
-        <v>46.69969832025163</v>
+        <v>93.95854456189272</v>
       </c>
       <c r="E2" t="n">
-        <v>63.98238617746909</v>
+        <v>66.63509800592564</v>
       </c>
       <c r="F2" t="n">
-        <v>33.83854505982617</v>
+        <v>44.82079479187121</v>
       </c>
       <c r="G2" t="n">
-        <v>45.52327067583674</v>
+        <v>62.62605229807027</v>
       </c>
       <c r="H2" t="n">
-        <v>85.55633406906128</v>
+        <v>111.6726801114124</v>
       </c>
       <c r="I2" t="n">
-        <v>51.02239478410389</v>
+        <v>75.93899067520962</v>
       </c>
     </row>
     <row r="3">
@@ -1916,28 +1918,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.39322462997325</v>
+        <v>52.94965526724295</v>
       </c>
       <c r="C3" t="n">
-        <v>29.81965094920434</v>
+        <v>81.67675924927173</v>
       </c>
       <c r="D3" t="n">
-        <v>20.17241004724401</v>
+        <v>79.47073962336412</v>
       </c>
       <c r="E3" t="n">
-        <v>25.65353828735984</v>
+        <v>47.40955060945117</v>
       </c>
       <c r="F3" t="n">
-        <v>21.57054244453537</v>
+        <v>28.0961404960227</v>
       </c>
       <c r="G3" t="n">
-        <v>28.79869505597596</v>
+        <v>39.60636952819615</v>
       </c>
       <c r="H3" t="n">
-        <v>35.33710780601268</v>
+        <v>82.83696237470957</v>
       </c>
       <c r="I3" t="n">
-        <v>26.24930988861507</v>
+        <v>58.86373959260835</v>
       </c>
     </row>
     <row r="4">
@@ -1947,28 +1949,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.08027053506169</v>
+        <v>47.81468511576429</v>
       </c>
       <c r="C4" t="n">
-        <v>30.02495172887608</v>
+        <v>73.17253153045489</v>
       </c>
       <c r="D4" t="n">
-        <v>22.72724063401546</v>
+        <v>76.9927182557812</v>
       </c>
       <c r="E4" t="n">
-        <v>33.6755058996027</v>
+        <v>42.97013190902607</v>
       </c>
       <c r="F4" t="n">
-        <v>21.41538575995978</v>
+        <v>28.07253570153635</v>
       </c>
       <c r="G4" t="n">
-        <v>37.07811991174357</v>
+        <v>46.36030910451439</v>
       </c>
       <c r="H4" t="n">
-        <v>36.54748713330243</v>
+        <v>91.24751237872199</v>
       </c>
       <c r="I4" t="n">
-        <v>28.22128022893738</v>
+        <v>58.09006057082845</v>
       </c>
     </row>
     <row r="5">
@@ -1978,28 +1980,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.11119343478371</v>
+        <v>55.64764550451378</v>
       </c>
       <c r="C5" t="n">
-        <v>24.86966685559713</v>
+        <v>75.5270766390731</v>
       </c>
       <c r="D5" t="n">
-        <v>31.39515602435846</v>
+        <v>91.48469703322748</v>
       </c>
       <c r="E5" t="n">
-        <v>17.37720100242987</v>
+        <v>44.08369984466759</v>
       </c>
       <c r="F5" t="n">
-        <v>20.94439281645905</v>
+        <v>23.92115943673048</v>
       </c>
       <c r="G5" t="n">
-        <v>26.15350379386268</v>
+        <v>43.32214161446586</v>
       </c>
       <c r="H5" t="n">
-        <v>56.03824281291065</v>
+        <v>112.0433209640902</v>
       </c>
       <c r="I5" t="n">
-        <v>27.98419382005736</v>
+        <v>63.71853443382407</v>
       </c>
     </row>
     <row r="6">
@@ -2009,28 +2011,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.58978129815445</v>
+        <v>63.59693057133458</v>
       </c>
       <c r="C6" t="n">
-        <v>30.75595616625003</v>
+        <v>54.18264857461732</v>
       </c>
       <c r="D6" t="n">
-        <v>51.23390701068895</v>
+        <v>89.40681783640244</v>
       </c>
       <c r="E6" t="n">
-        <v>43.85626903451514</v>
+        <v>44.36864160392672</v>
       </c>
       <c r="F6" t="n">
-        <v>26.86329770965543</v>
+        <v>33.35587537434517</v>
       </c>
       <c r="G6" t="n">
-        <v>30.81414009701704</v>
+        <v>47.01616517011212</v>
       </c>
       <c r="H6" t="n">
-        <v>74.80617662226547</v>
+        <v>68.79986118787042</v>
       </c>
       <c r="I6" t="n">
-        <v>41.5599325626495</v>
+        <v>57.24670575980125</v>
       </c>
     </row>
     <row r="7">
@@ -2040,28 +2042,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.99799333558293</v>
+        <v>54.78194210948266</v>
       </c>
       <c r="C7" t="n">
-        <v>32.09934505099103</v>
+        <v>75.13198937881842</v>
       </c>
       <c r="D7" t="n">
-        <v>25.86638023788421</v>
+        <v>80.29951041199779</v>
       </c>
       <c r="E7" t="n">
-        <v>24.11551729890289</v>
+        <v>47.52093000649053</v>
       </c>
       <c r="F7" t="n">
-        <v>28.23531358466895</v>
+        <v>33.21974164192116</v>
       </c>
       <c r="G7" t="n">
-        <v>19.49148084850125</v>
+        <v>40.00031868620977</v>
       </c>
       <c r="H7" t="n">
-        <v>28.61869579966837</v>
+        <v>85.29841598771533</v>
       </c>
       <c r="I7" t="n">
-        <v>26.48924659374281</v>
+        <v>59.46469260323367</v>
       </c>
     </row>
     <row r="8">
@@ -2071,28 +2073,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.60814534181178</v>
+        <v>50.21575021224888</v>
       </c>
       <c r="C8" t="n">
-        <v>30.26328773298886</v>
+        <v>77.46193164892142</v>
       </c>
       <c r="D8" t="n">
-        <v>23.83671047787495</v>
+        <v>77.56045611377208</v>
       </c>
       <c r="E8" t="n">
-        <v>54.76226118712218</v>
+        <v>64.03450098512366</v>
       </c>
       <c r="F8" t="n">
-        <v>28.84667420215845</v>
+        <v>36.18934394869943</v>
       </c>
       <c r="G8" t="n">
-        <v>22.31388577252127</v>
+        <v>39.06980053116847</v>
       </c>
       <c r="H8" t="n">
-        <v>48.12856881792612</v>
+        <v>101.4432343945452</v>
       </c>
       <c r="I8" t="n">
-        <v>32.25136193320052</v>
+        <v>63.71071683349702</v>
       </c>
     </row>
     <row r="9">
@@ -2102,28 +2104,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25.74418562471359</v>
+        <v>64.27767345824913</v>
       </c>
       <c r="C9" t="n">
-        <v>37.95852712490167</v>
+        <v>83.69965067967259</v>
       </c>
       <c r="D9" t="n">
-        <v>44.89230711611672</v>
+        <v>96.88574351666858</v>
       </c>
       <c r="E9" t="n">
-        <v>91.17512065814644</v>
+        <v>82.99727130447931</v>
       </c>
       <c r="F9" t="n">
-        <v>23.35407971105095</v>
+        <v>31.74611867321057</v>
       </c>
       <c r="G9" t="n">
-        <v>48.28856230081456</v>
+        <v>63.16349952446732</v>
       </c>
       <c r="H9" t="n">
-        <v>53.73384615756437</v>
+        <v>98.48845572626539</v>
       </c>
       <c r="I9" t="n">
-        <v>46.44951838475833</v>
+        <v>74.46548755471612</v>
       </c>
     </row>
     <row r="10">
@@ -2133,28 +2135,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.90911362978633</v>
+        <v>79.18287659799775</v>
       </c>
       <c r="C10" t="n">
-        <v>33.4163408650705</v>
+        <v>74.82049273654422</v>
       </c>
       <c r="D10" t="n">
-        <v>48.65530484476243</v>
+        <v>96.88763510923731</v>
       </c>
       <c r="E10" t="n">
-        <v>39.87735284911973</v>
+        <v>57.27347261399665</v>
       </c>
       <c r="F10" t="n">
-        <v>20.15624030256688</v>
+        <v>29.69390278186691</v>
       </c>
       <c r="G10" t="n">
-        <v>39.30227179213789</v>
+        <v>50.9965242534691</v>
       </c>
       <c r="H10" t="n">
-        <v>31.26695540751369</v>
+        <v>87.11604084612992</v>
       </c>
       <c r="I10" t="n">
-        <v>36.79765424156535</v>
+        <v>67.99584927703454</v>
       </c>
     </row>
   </sheetData>
@@ -2230,28 +2232,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.539940599409139</v>
+        <v>36.10806268079723</v>
       </c>
       <c r="C2" t="n">
-        <v>0.580227190574</v>
+        <v>25.13867901162873</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8593987467117934</v>
+        <v>43.24629499950922</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5444825524662988</v>
+        <v>40.83648326058832</v>
       </c>
       <c r="F2" t="n">
-        <v>2.555935215722535</v>
+        <v>34.15495641049209</v>
       </c>
       <c r="G2" t="n">
-        <v>1.675459565853913</v>
+        <v>41.35998462513636</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9630024048133379</v>
+        <v>57.19751956259609</v>
       </c>
       <c r="I2" t="n">
-        <v>1.245492325078717</v>
+        <v>39.72028293582115</v>
       </c>
     </row>
     <row r="3">
@@ -2261,28 +2263,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.735734878627298</v>
+        <v>26.85483566243669</v>
       </c>
       <c r="C3" t="n">
-        <v>1.048234555894901</v>
+        <v>33.76817434289165</v>
       </c>
       <c r="D3" t="n">
-        <v>6.865970215377779</v>
+        <v>35.69653386087961</v>
       </c>
       <c r="E3" t="n">
-        <v>2.301823838171565</v>
+        <v>31.35219236535944</v>
       </c>
       <c r="F3" t="n">
-        <v>1.648322558235016</v>
+        <v>30.54896627371485</v>
       </c>
       <c r="G3" t="n">
-        <v>1.141439964489789</v>
+        <v>35.45857788189905</v>
       </c>
       <c r="H3" t="n">
-        <v>2.222053238742273</v>
+        <v>32.06152496118</v>
       </c>
       <c r="I3" t="n">
-        <v>2.566225607076945</v>
+        <v>32.24868647833733</v>
       </c>
     </row>
     <row r="4">
@@ -2292,28 +2294,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5713024791612256</v>
+        <v>22.91193397833798</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5165632958492381</v>
+        <v>33.56793554643143</v>
       </c>
       <c r="D4" t="n">
-        <v>3.641949285128824</v>
+        <v>32.073680638369</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6996426013834416</v>
+        <v>29.13950541117146</v>
       </c>
       <c r="F4" t="n">
-        <v>1.126633278431814</v>
+        <v>26.93659777756324</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8521341020652642</v>
+        <v>42.17690471137401</v>
       </c>
       <c r="H4" t="n">
-        <v>1.151141994315225</v>
+        <v>35.88312562798453</v>
       </c>
       <c r="I4" t="n">
-        <v>1.222766719476433</v>
+        <v>31.81281195589023</v>
       </c>
     </row>
     <row r="5">
@@ -2323,28 +2325,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.079936809649972</v>
+        <v>30.21238526094008</v>
       </c>
       <c r="C5" t="n">
-        <v>1.156644450654518</v>
+        <v>34.85070052672201</v>
       </c>
       <c r="D5" t="n">
-        <v>8.910929513673111</v>
+        <v>36.28677381748146</v>
       </c>
       <c r="E5" t="n">
-        <v>1.980234833177292</v>
+        <v>30.49919423895723</v>
       </c>
       <c r="F5" t="n">
-        <v>1.894945627430339</v>
+        <v>21.98628540240679</v>
       </c>
       <c r="G5" t="n">
-        <v>1.11372452052191</v>
+        <v>35.02809586563343</v>
       </c>
       <c r="H5" t="n">
-        <v>2.545952404531977</v>
+        <v>50.23308315040927</v>
       </c>
       <c r="I5" t="n">
-        <v>2.954624022805588</v>
+        <v>34.15664546607861</v>
       </c>
     </row>
     <row r="6">
@@ -2354,28 +2356,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.879757289349726</v>
+        <v>46.19778104688395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5748841520457937</v>
+        <v>26.85822088837728</v>
       </c>
       <c r="D6" t="n">
-        <v>2.108096920709546</v>
+        <v>47.33174198189916</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7627031725912161</v>
+        <v>33.76935529212078</v>
       </c>
       <c r="F6" t="n">
-        <v>1.126683402267599</v>
+        <v>44.69000366973567</v>
       </c>
       <c r="G6" t="n">
-        <v>1.160681142617605</v>
+        <v>38.71694023315263</v>
       </c>
       <c r="H6" t="n">
-        <v>1.21535109711435</v>
+        <v>53.51121529861494</v>
       </c>
       <c r="I6" t="n">
-        <v>1.261165310956548</v>
+        <v>41.58217977296921</v>
       </c>
     </row>
     <row r="7">
@@ -2385,28 +2387,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.826807148465928</v>
+        <v>30.47428830115781</v>
       </c>
       <c r="C7" t="n">
-        <v>1.398643908526701</v>
+        <v>39.31814235889367</v>
       </c>
       <c r="D7" t="n">
-        <v>1.770369827731841</v>
+        <v>35.29490215887294</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6772055964193981</v>
+        <v>32.7623452355503</v>
       </c>
       <c r="F7" t="n">
-        <v>1.817652666184948</v>
+        <v>33.53159165317076</v>
       </c>
       <c r="G7" t="n">
-        <v>1.033742624469944</v>
+        <v>33.11628889647174</v>
       </c>
       <c r="H7" t="n">
-        <v>2.082493660922758</v>
+        <v>45.22414110085995</v>
       </c>
       <c r="I7" t="n">
-        <v>1.515273633245931</v>
+        <v>35.67452852928245</v>
       </c>
     </row>
     <row r="8">
@@ -2416,28 +2418,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.487442128533637</v>
+        <v>25.81273241201578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5798300545109711</v>
+        <v>32.18955148801821</v>
       </c>
       <c r="D8" t="n">
-        <v>1.282155329111109</v>
+        <v>34.1330264695339</v>
       </c>
       <c r="E8" t="n">
-        <v>1.830176509471318</v>
+        <v>49.01547702166992</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9105642480750866</v>
+        <v>35.55722688459336</v>
       </c>
       <c r="G8" t="n">
-        <v>0.605686800204337</v>
+        <v>25.90904223139972</v>
       </c>
       <c r="H8" t="n">
-        <v>1.112514949649579</v>
+        <v>41.81023353669727</v>
       </c>
       <c r="I8" t="n">
-        <v>1.115481431365148</v>
+        <v>34.91818429198974</v>
       </c>
     </row>
     <row r="9">
@@ -2447,28 +2449,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.049796188854959</v>
+        <v>30.02666162916749</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8671676923441254</v>
+        <v>33.5500907585869</v>
       </c>
       <c r="D9" t="n">
-        <v>1.226069911099302</v>
+        <v>42.47444032342427</v>
       </c>
       <c r="E9" t="n">
-        <v>1.465400352873862</v>
+        <v>48.15538720754818</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7771502001227191</v>
+        <v>26.29130592339172</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8098743246738032</v>
+        <v>30.61036055622707</v>
       </c>
       <c r="H9" t="n">
-        <v>1.300259541724209</v>
+        <v>49.31757649448677</v>
       </c>
       <c r="I9" t="n">
-        <v>1.070816887384711</v>
+        <v>37.20368898469034</v>
       </c>
     </row>
     <row r="10">
@@ -2478,28 +2480,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.660945911181848</v>
+        <v>40.61792828544692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6065629871245584</v>
+        <v>35.74211454005305</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8921678449382497</v>
+        <v>43.14816809114302</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5668513320053332</v>
+        <v>35.35601719113534</v>
       </c>
       <c r="F10" t="n">
-        <v>0.946300167175</v>
+        <v>32.3734075203331</v>
       </c>
       <c r="G10" t="n">
-        <v>1.625306984214394</v>
+        <v>31.13087707817522</v>
       </c>
       <c r="H10" t="n">
-        <v>1.14875110315138</v>
+        <v>50.05675547940534</v>
       </c>
       <c r="I10" t="n">
-        <v>1.063840904255823</v>
+        <v>38.34646688367029</v>
       </c>
     </row>
   </sheetData>
@@ -2575,28 +2577,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.51502608393233</v>
+        <v>6.069878426764916</v>
       </c>
       <c r="C2" t="n">
-        <v>15.22610927782762</v>
+        <v>1.527745637718976</v>
       </c>
       <c r="D2" t="n">
-        <v>28.15446587103509</v>
+        <v>5.53388928558725</v>
       </c>
       <c r="E2" t="n">
-        <v>9.701690245003775</v>
+        <v>3.507335714046707</v>
       </c>
       <c r="F2" t="n">
-        <v>38.89927987403661</v>
+        <v>8.967364617395553</v>
       </c>
       <c r="G2" t="n">
-        <v>29.71438802271422</v>
+        <v>6.681038244406245</v>
       </c>
       <c r="H2" t="n">
-        <v>24.90448709922651</v>
+        <v>3.937431724849944</v>
       </c>
       <c r="I2" t="n">
-        <v>25.87363521053945</v>
+        <v>5.174954807252798</v>
       </c>
     </row>
     <row r="3">
@@ -2606,28 +2608,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.75319459712404</v>
+        <v>3.655418284076667</v>
       </c>
       <c r="C3" t="n">
-        <v>18.76286813681926</v>
+        <v>2.643081247271509</v>
       </c>
       <c r="D3" t="n">
-        <v>22.08322243752119</v>
+        <v>3.613515498807239</v>
       </c>
       <c r="E3" t="n">
-        <v>6.960355230781715</v>
+        <v>2.558999671839004</v>
       </c>
       <c r="F3" t="n">
-        <v>18.27557931139242</v>
+        <v>6.47469672296242</v>
       </c>
       <c r="G3" t="n">
-        <v>18.78889627549631</v>
+        <v>5.756682342929023</v>
       </c>
       <c r="H3" t="n">
-        <v>24.71112387164865</v>
+        <v>2.226324884001066</v>
       </c>
       <c r="I3" t="n">
-        <v>21.19074855154051</v>
+        <v>3.846959807412419</v>
       </c>
     </row>
     <row r="4">
@@ -2637,28 +2639,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.98851151142898</v>
+        <v>2.232999077985081</v>
       </c>
       <c r="C4" t="n">
-        <v>21.61005611073483</v>
+        <v>2.56951272859796</v>
       </c>
       <c r="D4" t="n">
-        <v>22.10110426162316</v>
+        <v>2.64822866078427</v>
       </c>
       <c r="E4" t="n">
-        <v>10.18513662110804</v>
+        <v>2.098198378846746</v>
       </c>
       <c r="F4" t="n">
-        <v>18.01449498675161</v>
+        <v>4.505306888057085</v>
       </c>
       <c r="G4" t="n">
-        <v>18.89206601679359</v>
+        <v>5.844574264862178</v>
       </c>
       <c r="H4" t="n">
-        <v>17.98041674808829</v>
+        <v>1.828608043001914</v>
       </c>
       <c r="I4" t="n">
-        <v>17.5388266080755</v>
+        <v>3.103918291733605</v>
       </c>
     </row>
     <row r="5">
@@ -2668,28 +2670,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.4964757030188</v>
+        <v>2.399484152867981</v>
       </c>
       <c r="C5" t="n">
-        <v>17.06904054155363</v>
+        <v>2.524243734530385</v>
       </c>
       <c r="D5" t="n">
-        <v>26.12147201480198</v>
+        <v>5.344923978818937</v>
       </c>
       <c r="E5" t="n">
-        <v>11.13568602936867</v>
+        <v>1.884837029168768</v>
       </c>
       <c r="F5" t="n">
-        <v>23.26236369548074</v>
+        <v>5.243871814897851</v>
       </c>
       <c r="G5" t="n">
-        <v>22.73820209521324</v>
+        <v>7.465949789809081</v>
       </c>
       <c r="H5" t="n">
-        <v>24.6054363695047</v>
+        <v>2.053239270883076</v>
       </c>
       <c r="I5" t="n">
-        <v>21.48981092127739</v>
+        <v>3.845221395853725</v>
       </c>
     </row>
     <row r="6">
@@ -2699,28 +2701,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.87234455509105</v>
+        <v>8.287042215405059</v>
       </c>
       <c r="C6" t="n">
-        <v>18.92798312147221</v>
+        <v>3.1501025375946</v>
       </c>
       <c r="D6" t="n">
-        <v>29.14656826852581</v>
+        <v>11.16415167888493</v>
       </c>
       <c r="E6" t="n">
-        <v>8.315165239025191</v>
+        <v>3.179989629399916</v>
       </c>
       <c r="F6" t="n">
-        <v>18.47100618665417</v>
+        <v>9.809126784735668</v>
       </c>
       <c r="G6" t="n">
-        <v>14.5457038323529</v>
+        <v>5.304092239152846</v>
       </c>
       <c r="H6" t="n">
-        <v>25.53546943693351</v>
+        <v>5.10610023981781</v>
       </c>
       <c r="I6" t="n">
-        <v>19.54489152000783</v>
+        <v>6.571515046427261</v>
       </c>
     </row>
     <row r="7">
@@ -2730,28 +2732,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.35223046842725</v>
+        <v>3.71669244281075</v>
       </c>
       <c r="C7" t="n">
-        <v>10.14979491027043</v>
+        <v>3.376934127031202</v>
       </c>
       <c r="D7" t="n">
-        <v>27.06923884250432</v>
+        <v>5.008079772984786</v>
       </c>
       <c r="E7" t="n">
-        <v>5.660794991828297</v>
+        <v>2.617129182922206</v>
       </c>
       <c r="F7" t="n">
-        <v>28.29717999962482</v>
+        <v>9.494440675447002</v>
       </c>
       <c r="G7" t="n">
-        <v>22.26572719865665</v>
+        <v>5.284429253542063</v>
       </c>
       <c r="H7" t="n">
-        <v>16.78409944782385</v>
+        <v>3.142336127911239</v>
       </c>
       <c r="I7" t="n">
-        <v>18.22558083701937</v>
+        <v>4.662863083235607</v>
       </c>
     </row>
     <row r="8">
@@ -2761,28 +2763,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.89692501666468</v>
+        <v>5.9604157365346</v>
       </c>
       <c r="C8" t="n">
-        <v>17.85161382896386</v>
+        <v>1.941542709760986</v>
       </c>
       <c r="D8" t="n">
-        <v>17.66879021809029</v>
+        <v>4.192780067990292</v>
       </c>
       <c r="E8" t="n">
-        <v>12.9723759107775</v>
+        <v>5.358480348042926</v>
       </c>
       <c r="F8" t="n">
-        <v>18.10340257602196</v>
+        <v>10.31812548963315</v>
       </c>
       <c r="G8" t="n">
-        <v>10.73821377894591</v>
+        <v>2.078600681156829</v>
       </c>
       <c r="H8" t="n">
-        <v>18.47791211412627</v>
+        <v>2.6810892413109</v>
       </c>
       <c r="I8" t="n">
-        <v>15.81560477765578</v>
+        <v>4.647290610632811</v>
       </c>
     </row>
     <row r="9">
@@ -2792,28 +2794,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.50425980418805</v>
+        <v>5.910117492893306</v>
       </c>
       <c r="C9" t="n">
-        <v>8.591763347772542</v>
+        <v>3.051819818105052</v>
       </c>
       <c r="D9" t="n">
-        <v>20.90825907202534</v>
+        <v>7.280872603963779</v>
       </c>
       <c r="E9" t="n">
-        <v>10.72177349948834</v>
+        <v>5.216979459081612</v>
       </c>
       <c r="F9" t="n">
-        <v>15.5351690851744</v>
+        <v>6.097040415663454</v>
       </c>
       <c r="G9" t="n">
-        <v>12.14810612648922</v>
+        <v>2.703661889587462</v>
       </c>
       <c r="H9" t="n">
-        <v>18.67931823926713</v>
+        <v>4.812098750310584</v>
       </c>
       <c r="I9" t="n">
-        <v>14.869807024915</v>
+        <v>5.010370061372178</v>
       </c>
     </row>
     <row r="10">
@@ -2823,28 +2825,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.18811663809402</v>
+        <v>4.360127979417868</v>
       </c>
       <c r="C10" t="n">
-        <v>11.21846605643282</v>
+        <v>4.235810069194088</v>
       </c>
       <c r="D10" t="n">
-        <v>25.64758873705679</v>
+        <v>6.702227053399248</v>
       </c>
       <c r="E10" t="n">
-        <v>9.315611233310705</v>
+        <v>2.930399524654062</v>
       </c>
       <c r="F10" t="n">
-        <v>16.83702044491027</v>
+        <v>7.961537364133971</v>
       </c>
       <c r="G10" t="n">
-        <v>13.16175515680142</v>
+        <v>2.720572539289547</v>
       </c>
       <c r="H10" t="n">
-        <v>22.95658877205014</v>
+        <v>2.973551737675329</v>
       </c>
       <c r="I10" t="n">
-        <v>17.90359243409373</v>
+        <v>4.554889466823445</v>
       </c>
     </row>
   </sheetData>
@@ -2920,28 +2922,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.181320166095155</v>
+        <v>133.4850263109124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4208970014701769</v>
+        <v>90.89575011202842</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8526037457425062</v>
+        <v>152.3723653124142</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7640509318751292</v>
+        <v>154.9299678087534</v>
       </c>
       <c r="F2" t="n">
-        <v>4.715133708799925</v>
+        <v>101.5816111581207</v>
       </c>
       <c r="G2" t="n">
-        <v>3.128760689309818</v>
+        <v>115.5025032599119</v>
       </c>
       <c r="H2" t="n">
-        <v>1.120343181200717</v>
+        <v>203.4176804853769</v>
       </c>
       <c r="I2" t="n">
-        <v>2.16901563207049</v>
+        <v>136.026414921074</v>
       </c>
     </row>
     <row r="3">
@@ -2951,28 +2953,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.523162326947215</v>
+        <v>151.2274035929748</v>
       </c>
       <c r="C3" t="n">
-        <v>2.006389398783821</v>
+        <v>95.86861076895654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6290149801067138</v>
+        <v>171.8685065121956</v>
       </c>
       <c r="E3" t="n">
-        <v>3.935221911415358</v>
+        <v>182.8796808906744</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5237938989995889</v>
+        <v>99.63100149651972</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9018444016850342</v>
+        <v>104.9907216917208</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7292280282849966</v>
+        <v>177.0806870297345</v>
       </c>
       <c r="I3" t="n">
-        <v>1.892664992317532</v>
+        <v>140.5066588546823</v>
       </c>
     </row>
     <row r="4">
@@ -2982,28 +2984,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5425176883989096</v>
+        <v>177.693391910591</v>
       </c>
       <c r="C4" t="n">
-        <v>5.490613761473377</v>
+        <v>86.79908380014058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7647687119114295</v>
+        <v>197.6977065513858</v>
       </c>
       <c r="E4" t="n">
-        <v>5.123899069666969</v>
+        <v>138.5503883947379</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3718301454757267</v>
+        <v>102.4248503572031</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7892011834632324</v>
+        <v>162.8278217787454</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4851597628668927</v>
+        <v>156.4034192281921</v>
       </c>
       <c r="I4" t="n">
-        <v>1.938284331893791</v>
+        <v>146.0566660029994</v>
       </c>
     </row>
     <row r="5">
@@ -3013,28 +3015,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.514267119168842</v>
+        <v>117.5411064449861</v>
       </c>
       <c r="C5" t="n">
-        <v>4.326207274014767</v>
+        <v>116.8976086524409</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9689999702432708</v>
+        <v>140.0972412825853</v>
       </c>
       <c r="E5" t="n">
-        <v>2.758070711290728</v>
+        <v>121.6232476549711</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9112063412967224</v>
+        <v>99.39165025366867</v>
       </c>
       <c r="G5" t="n">
-        <v>2.402667234452407</v>
+        <v>149.2825504945188</v>
       </c>
       <c r="H5" t="n">
-        <v>1.281646412142081</v>
+        <v>198.9173515357694</v>
       </c>
       <c r="I5" t="n">
-        <v>2.166152151801259</v>
+        <v>134.8215366169915</v>
       </c>
     </row>
     <row r="6">
@@ -3044,28 +3046,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.509072272289806</v>
+        <v>136.7526187628741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5222634943777393</v>
+        <v>147.0102679241505</v>
       </c>
       <c r="D6" t="n">
-        <v>3.18243701349726</v>
+        <v>149.0443517675234</v>
       </c>
       <c r="E6" t="n">
-        <v>1.418261501797488</v>
+        <v>140.9626730407984</v>
       </c>
       <c r="F6" t="n">
-        <v>1.237281057010822</v>
+        <v>105.9677228951342</v>
       </c>
       <c r="G6" t="n">
-        <v>1.777694103558046</v>
+        <v>138.0819275038604</v>
       </c>
       <c r="H6" t="n">
-        <v>1.390525279095197</v>
+        <v>144.8355235872819</v>
       </c>
       <c r="I6" t="n">
-        <v>1.862504960232337</v>
+        <v>137.5221550688033</v>
       </c>
     </row>
     <row r="7">
@@ -3075,28 +3077,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.580713397398569</v>
+        <v>29.33592843927327</v>
       </c>
       <c r="C7" t="n">
-        <v>2.580775210485498</v>
+        <v>38.55212146861656</v>
       </c>
       <c r="D7" t="n">
-        <v>1.784274650597855</v>
+        <v>34.18281612186761</v>
       </c>
       <c r="E7" t="n">
-        <v>1.6905831473685</v>
+        <v>31.64394364415683</v>
       </c>
       <c r="F7" t="n">
-        <v>1.953548524246603</v>
+        <v>32.37202462902077</v>
       </c>
       <c r="G7" t="n">
-        <v>1.665308945530397</v>
+        <v>32.67971526434022</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5031419481935657</v>
+        <v>43.71831745797296</v>
       </c>
       <c r="I7" t="n">
-        <v>1.679763689117284</v>
+        <v>34.64069528932117</v>
       </c>
     </row>
     <row r="8">
@@ -3106,28 +3108,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.374746595689459</v>
+        <v>137.8052430711672</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8978786563457533</v>
+        <v>192.5225531053442</v>
       </c>
       <c r="D8" t="n">
-        <v>0.789991155999985</v>
+        <v>220.0351891899201</v>
       </c>
       <c r="E8" t="n">
-        <v>8.838064103109154</v>
+        <v>153.0078212387402</v>
       </c>
       <c r="F8" t="n">
-        <v>1.187051237551938</v>
+        <v>92.11930143048758</v>
       </c>
       <c r="G8" t="n">
-        <v>0.607955020059503</v>
+        <v>116.2726361095965</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6855078774815091</v>
+        <v>182.4103969654868</v>
       </c>
       <c r="I8" t="n">
-        <v>2.0544563780339</v>
+        <v>156.3104487301061</v>
       </c>
     </row>
     <row r="9">
@@ -3137,28 +3139,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9741746710917951</v>
+        <v>149.7122763796914</v>
       </c>
       <c r="C9" t="n">
-        <v>2.748656876622583</v>
+        <v>105.5420289519891</v>
       </c>
       <c r="D9" t="n">
-        <v>1.625415066994726</v>
+        <v>126.9772751788267</v>
       </c>
       <c r="E9" t="n">
-        <v>14.10666825866139</v>
+        <v>143.3462137236423</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5649489604598088</v>
+        <v>84.44786645282707</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6699264571514156</v>
+        <v>97.1929747741512</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8288271055772896</v>
+        <v>217.676664705591</v>
       </c>
       <c r="I9" t="n">
-        <v>3.074088199508429</v>
+        <v>132.127900023817</v>
       </c>
     </row>
     <row r="10">
@@ -3168,28 +3170,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.264386589087799</v>
+        <v>130.2358823108345</v>
       </c>
       <c r="C10" t="n">
-        <v>6.08773196898462</v>
+        <v>141.1750078631516</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6576883520402959</v>
+        <v>129.0821426239671</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6155192311197553</v>
+        <v>131.5265587845012</v>
       </c>
       <c r="F10" t="n">
-        <v>1.678492210319916</v>
+        <v>90.39945632156648</v>
       </c>
       <c r="G10" t="n">
-        <v>1.23577646307163</v>
+        <v>96.9659006854409</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8735677394342929</v>
+        <v>148.3555345268866</v>
       </c>
       <c r="I10" t="n">
-        <v>1.773308936294044</v>
+        <v>123.9629261594784</v>
       </c>
     </row>
   </sheetData>
@@ -3265,28 +3267,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.088668072088367</v>
+        <v>1.539940599409139</v>
       </c>
       <c r="C2" t="n">
-        <v>2.191858715304193</v>
+        <v>0.580227190574</v>
       </c>
       <c r="D2" t="n">
-        <v>3.909509875143868</v>
+        <v>0.8593987467117934</v>
       </c>
       <c r="E2" t="n">
-        <v>2.507240143652254</v>
+        <v>0.5444825524662988</v>
       </c>
       <c r="F2" t="n">
-        <v>7.422360812759948</v>
+        <v>2.555935215722535</v>
       </c>
       <c r="G2" t="n">
-        <v>7.241425223732207</v>
+        <v>1.675459565853913</v>
       </c>
       <c r="H2" t="n">
-        <v>2.610510135817535</v>
+        <v>0.9630024048133379</v>
       </c>
       <c r="I2" t="n">
-        <v>4.424510425499768</v>
+        <v>1.245492325078717</v>
       </c>
     </row>
     <row r="3">
@@ -3296,28 +3298,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.826515522937072</v>
+        <v>2.735734878627298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.423322588514139</v>
+        <v>1.048234555894901</v>
       </c>
       <c r="D3" t="n">
-        <v>3.349653509972271</v>
+        <v>6.865970215377779</v>
       </c>
       <c r="E3" t="n">
-        <v>2.493629805975473</v>
+        <v>2.301823838171565</v>
       </c>
       <c r="F3" t="n">
-        <v>2.234629086566095</v>
+        <v>1.648322558235016</v>
       </c>
       <c r="G3" t="n">
-        <v>2.644255258454265</v>
+        <v>1.141439964489789</v>
       </c>
       <c r="H3" t="n">
-        <v>2.693102617417537</v>
+        <v>2.222053238742273</v>
       </c>
       <c r="I3" t="n">
-        <v>3.23787262711955</v>
+        <v>2.566225607076945</v>
       </c>
     </row>
     <row r="4">
@@ -3327,28 +3329,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.5127127002892</v>
+        <v>0.5713024791612256</v>
       </c>
       <c r="C4" t="n">
-        <v>2.475251468629594</v>
+        <v>0.5165632958492381</v>
       </c>
       <c r="D4" t="n">
-        <v>3.800252998519525</v>
+        <v>3.641949285128824</v>
       </c>
       <c r="E4" t="n">
-        <v>2.031857106327081</v>
+        <v>0.6996426013834416</v>
       </c>
       <c r="F4" t="n">
-        <v>1.917895594187421</v>
+        <v>1.126633278431814</v>
       </c>
       <c r="G4" t="n">
-        <v>2.542885429593994</v>
+        <v>0.8521341020652642</v>
       </c>
       <c r="H4" t="n">
-        <v>1.647092186246041</v>
+        <v>1.151141994315225</v>
       </c>
       <c r="I4" t="n">
-        <v>2.275421069113265</v>
+        <v>1.222766719476433</v>
       </c>
     </row>
     <row r="5">
@@ -3358,28 +3360,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.971349299975671</v>
+        <v>3.079936809649972</v>
       </c>
       <c r="C5" t="n">
-        <v>3.876742872805707</v>
+        <v>1.156644450654518</v>
       </c>
       <c r="D5" t="n">
-        <v>2.686051039534078</v>
+        <v>8.910929513673111</v>
       </c>
       <c r="E5" t="n">
-        <v>3.894260617559283</v>
+        <v>1.980234833177292</v>
       </c>
       <c r="F5" t="n">
-        <v>2.675601002455863</v>
+        <v>1.894945627430339</v>
       </c>
       <c r="G5" t="n">
-        <v>7.394881560826008</v>
+        <v>1.11372452052191</v>
       </c>
       <c r="H5" t="n">
-        <v>2.894068411892107</v>
+        <v>2.545952404531977</v>
       </c>
       <c r="I5" t="n">
-        <v>3.913279257864102</v>
+        <v>2.954624022805588</v>
       </c>
     </row>
     <row r="6">
@@ -3389,28 +3391,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.971812489686855</v>
+        <v>1.879757289349726</v>
       </c>
       <c r="C6" t="n">
-        <v>2.4839719106687</v>
+        <v>0.5748841520457937</v>
       </c>
       <c r="D6" t="n">
-        <v>8.445589424782298</v>
+        <v>2.108096920709546</v>
       </c>
       <c r="E6" t="n">
-        <v>1.791321265087532</v>
+        <v>0.7627031725912161</v>
       </c>
       <c r="F6" t="n">
-        <v>5.184935138170253</v>
+        <v>1.126683402267599</v>
       </c>
       <c r="G6" t="n">
-        <v>8.968179370647889</v>
+        <v>1.160681142617605</v>
       </c>
       <c r="H6" t="n">
-        <v>2.636772333008366</v>
+        <v>1.21535109711435</v>
       </c>
       <c r="I6" t="n">
-        <v>4.783225990293127</v>
+        <v>1.261165310956548</v>
       </c>
     </row>
     <row r="7">
@@ -3420,28 +3422,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.199102714283896</v>
+        <v>1.826807148465928</v>
       </c>
       <c r="C7" t="n">
-        <v>2.644719658698349</v>
+        <v>1.398643908526701</v>
       </c>
       <c r="D7" t="n">
-        <v>6.816076149352838</v>
+        <v>1.770369827731841</v>
       </c>
       <c r="E7" t="n">
-        <v>2.114897879645738</v>
+        <v>0.6772055964193981</v>
       </c>
       <c r="F7" t="n">
-        <v>4.463365396896741</v>
+        <v>1.817652666184948</v>
       </c>
       <c r="G7" t="n">
-        <v>3.93063248134559</v>
+        <v>1.033742624469944</v>
       </c>
       <c r="H7" t="n">
-        <v>2.835060047513736</v>
+        <v>2.082493660922758</v>
       </c>
       <c r="I7" t="n">
-        <v>3.571979189676699</v>
+        <v>1.515273633245931</v>
       </c>
     </row>
     <row r="8">
@@ -3451,28 +3453,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.547752563556656</v>
+        <v>1.487442128533637</v>
       </c>
       <c r="C8" t="n">
-        <v>1.841727144865018</v>
+        <v>0.5798300545109711</v>
       </c>
       <c r="D8" t="n">
-        <v>1.744402485702139</v>
+        <v>1.282155329111109</v>
       </c>
       <c r="E8" t="n">
-        <v>5.896714361697676</v>
+        <v>1.830176509471318</v>
       </c>
       <c r="F8" t="n">
-        <v>2.594764136101944</v>
+        <v>0.9105642480750866</v>
       </c>
       <c r="G8" t="n">
-        <v>2.108664784290298</v>
+        <v>0.605686800204337</v>
       </c>
       <c r="H8" t="n">
-        <v>1.394559755558674</v>
+        <v>1.112514949649579</v>
       </c>
       <c r="I8" t="n">
-        <v>2.589797890253201</v>
+        <v>1.115481431365148</v>
       </c>
     </row>
     <row r="9">
@@ -3482,28 +3484,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.594322572923659</v>
+        <v>1.049796188854959</v>
       </c>
       <c r="C9" t="n">
-        <v>1.9630525751124</v>
+        <v>0.8671676923441254</v>
       </c>
       <c r="D9" t="n">
-        <v>2.882837127253296</v>
+        <v>1.226069911099302</v>
       </c>
       <c r="E9" t="n">
-        <v>5.204517745041912</v>
+        <v>1.465400352873862</v>
       </c>
       <c r="F9" t="n">
-        <v>1.630336000730807</v>
+        <v>0.7771502001227191</v>
       </c>
       <c r="G9" t="n">
-        <v>2.436975486037866</v>
+        <v>0.8098743246738032</v>
       </c>
       <c r="H9" t="n">
-        <v>2.708213043335235</v>
+        <v>1.300259541724209</v>
       </c>
       <c r="I9" t="n">
-        <v>2.774322078633596</v>
+        <v>1.070816887384711</v>
       </c>
     </row>
     <row r="10">
@@ -3513,28 +3515,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.024435614354644</v>
+        <v>1.660945911181848</v>
       </c>
       <c r="C10" t="n">
-        <v>3.133163179400285</v>
+        <v>0.6065629871245584</v>
       </c>
       <c r="D10" t="n">
-        <v>3.413913846232902</v>
+        <v>0.8921678449382497</v>
       </c>
       <c r="E10" t="n">
-        <v>2.029949897926571</v>
+        <v>0.5668513320053332</v>
       </c>
       <c r="F10" t="n">
-        <v>2.613734968178534</v>
+        <v>0.946300167175</v>
       </c>
       <c r="G10" t="n">
-        <v>2.926850435847008</v>
+        <v>1.625306984214394</v>
       </c>
       <c r="H10" t="n">
-        <v>3.664885607314915</v>
+        <v>1.14875110315138</v>
       </c>
       <c r="I10" t="n">
-        <v>3.115276221322123</v>
+        <v>1.063840904255823</v>
       </c>
     </row>
   </sheetData>
@@ -3610,28 +3612,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.209210186842554</v>
+        <v>34.51502608393233</v>
       </c>
       <c r="C2" t="n">
-        <v>2.243459267940104</v>
+        <v>15.22610927782762</v>
       </c>
       <c r="D2" t="n">
-        <v>5.943094407506486</v>
+        <v>28.15446587103509</v>
       </c>
       <c r="E2" t="n">
-        <v>2.943338914113156</v>
+        <v>9.701690245003775</v>
       </c>
       <c r="F2" t="n">
-        <v>3.540138992887215</v>
+        <v>38.89927987403661</v>
       </c>
       <c r="G2" t="n">
-        <v>4.376836516048222</v>
+        <v>29.71438802271422</v>
       </c>
       <c r="H2" t="n">
-        <v>5.262596135953068</v>
+        <v>24.90448709922651</v>
       </c>
       <c r="I2" t="n">
-        <v>4.502667774470114</v>
+        <v>25.87363521053945</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3643,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.305193455257516</v>
+        <v>38.75319459712404</v>
       </c>
       <c r="C3" t="n">
-        <v>3.150133625419315</v>
+        <v>18.76286813681926</v>
       </c>
       <c r="D3" t="n">
-        <v>3.294914223533659</v>
+        <v>22.08322243752119</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555786513103932</v>
+        <v>6.960355230781715</v>
       </c>
       <c r="F3" t="n">
-        <v>1.022170572904187</v>
+        <v>18.27557931139242</v>
       </c>
       <c r="G3" t="n">
-        <v>2.124176142508404</v>
+        <v>18.78889627549631</v>
       </c>
       <c r="H3" t="n">
-        <v>1.560383357895759</v>
+        <v>24.71112387164865</v>
       </c>
       <c r="I3" t="n">
-        <v>3.001822555803253</v>
+        <v>21.19074855154051</v>
       </c>
     </row>
     <row r="4">
@@ -3672,28 +3674,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.618091416782704</v>
+        <v>13.98851151142898</v>
       </c>
       <c r="C4" t="n">
-        <v>2.712374338408438</v>
+        <v>21.61005611073483</v>
       </c>
       <c r="D4" t="n">
-        <v>1.919416379270643</v>
+        <v>22.10110426162316</v>
       </c>
       <c r="E4" t="n">
-        <v>1.897907602736382</v>
+        <v>10.18513662110804</v>
       </c>
       <c r="F4" t="n">
-        <v>1.267199211688173</v>
+        <v>18.01449498675161</v>
       </c>
       <c r="G4" t="n">
-        <v>1.317133943028288</v>
+        <v>18.89206601679359</v>
       </c>
       <c r="H4" t="n">
-        <v>1.364178058440018</v>
+        <v>17.98041674808829</v>
       </c>
       <c r="I4" t="n">
-        <v>1.728042992907806</v>
+        <v>17.5388266080755</v>
       </c>
     </row>
     <row r="5">
@@ -3703,28 +3705,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.573568253421314</v>
+        <v>25.4964757030188</v>
       </c>
       <c r="C5" t="n">
-        <v>5.112129582661254</v>
+        <v>17.06904054155363</v>
       </c>
       <c r="D5" t="n">
-        <v>3.541329098081334</v>
+        <v>26.12147201480198</v>
       </c>
       <c r="E5" t="n">
-        <v>7.468176778616154</v>
+        <v>11.13568602936867</v>
       </c>
       <c r="F5" t="n">
-        <v>2.07113510606203</v>
+        <v>23.26236369548074</v>
       </c>
       <c r="G5" t="n">
-        <v>3.531679805028816</v>
+        <v>22.73820209521324</v>
       </c>
       <c r="H5" t="n">
-        <v>2.125171587380507</v>
+        <v>24.6054363695047</v>
       </c>
       <c r="I5" t="n">
-        <v>4.060455744464487</v>
+        <v>21.48981092127739</v>
       </c>
     </row>
     <row r="6">
@@ -3734,28 +3736,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.180690429947987</v>
+        <v>21.87234455509105</v>
       </c>
       <c r="C6" t="n">
-        <v>3.251563319443449</v>
+        <v>18.92798312147221</v>
       </c>
       <c r="D6" t="n">
-        <v>7.714207157315357</v>
+        <v>29.14656826852581</v>
       </c>
       <c r="E6" t="n">
-        <v>3.188659547869008</v>
+        <v>8.315165239025191</v>
       </c>
       <c r="F6" t="n">
-        <v>3.663226881480838</v>
+        <v>18.47100618665417</v>
       </c>
       <c r="G6" t="n">
-        <v>5.208373797496662</v>
+        <v>14.5457038323529</v>
       </c>
       <c r="H6" t="n">
-        <v>5.337801248170869</v>
+        <v>25.53546943693351</v>
       </c>
       <c r="I6" t="n">
-        <v>4.649217483103453</v>
+        <v>19.54489152000783</v>
       </c>
     </row>
     <row r="7">
@@ -3765,28 +3767,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.497736427872056</v>
+        <v>17.35223046842725</v>
       </c>
       <c r="C7" t="n">
-        <v>7.535379997865789</v>
+        <v>10.14979491027043</v>
       </c>
       <c r="D7" t="n">
-        <v>3.857536361866089</v>
+        <v>27.06923884250432</v>
       </c>
       <c r="E7" t="n">
-        <v>2.980318005194469</v>
+        <v>5.660794991828297</v>
       </c>
       <c r="F7" t="n">
-        <v>3.266639207279034</v>
+        <v>28.29717999962482</v>
       </c>
       <c r="G7" t="n">
-        <v>2.295238092961668</v>
+        <v>22.26572719865665</v>
       </c>
       <c r="H7" t="n">
-        <v>2.047196281985805</v>
+        <v>16.78409944782385</v>
       </c>
       <c r="I7" t="n">
-        <v>3.640006339289273</v>
+        <v>18.22558083701937</v>
       </c>
     </row>
     <row r="8">
@@ -3796,28 +3798,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.827893514156074</v>
+        <v>14.89692501666468</v>
       </c>
       <c r="C8" t="n">
-        <v>2.686898733986332</v>
+        <v>17.85161382896386</v>
       </c>
       <c r="D8" t="n">
-        <v>1.899104000664344</v>
+        <v>17.66879021809029</v>
       </c>
       <c r="E8" t="n">
-        <v>6.089923006115846</v>
+        <v>12.9723759107775</v>
       </c>
       <c r="F8" t="n">
-        <v>1.836185605479564</v>
+        <v>18.10340257602196</v>
       </c>
       <c r="G8" t="n">
-        <v>1.773023437825366</v>
+        <v>10.73821377894591</v>
       </c>
       <c r="H8" t="n">
-        <v>3.39152423018318</v>
+        <v>18.47791211412627</v>
       </c>
       <c r="I8" t="n">
-        <v>2.929221789772958</v>
+        <v>15.81560477765578</v>
       </c>
     </row>
     <row r="9">
@@ -3827,28 +3829,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.507383805622382</v>
+        <v>17.50425980418805</v>
       </c>
       <c r="C9" t="n">
-        <v>3.063715121035784</v>
+        <v>8.591763347772542</v>
       </c>
       <c r="D9" t="n">
-        <v>3.448095705391601</v>
+        <v>20.90825907202534</v>
       </c>
       <c r="E9" t="n">
-        <v>10.64570516301808</v>
+        <v>10.72177349948834</v>
       </c>
       <c r="F9" t="n">
-        <v>1.937703143272444</v>
+        <v>15.5351690851744</v>
       </c>
       <c r="G9" t="n">
-        <v>2.700749711863409</v>
+        <v>12.14810612648922</v>
       </c>
       <c r="H9" t="n">
-        <v>3.369805070502011</v>
+        <v>18.67931823926713</v>
       </c>
       <c r="I9" t="n">
-        <v>3.953308245815101</v>
+        <v>14.869807024915</v>
       </c>
     </row>
     <row r="10">
@@ -3858,28 +3860,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.01742070286349</v>
+        <v>26.18811663809402</v>
       </c>
       <c r="C10" t="n">
-        <v>5.597525223043448</v>
+        <v>11.21846605643282</v>
       </c>
       <c r="D10" t="n">
-        <v>5.239315380582809</v>
+        <v>25.64758873705679</v>
       </c>
       <c r="E10" t="n">
-        <v>1.853649017718965</v>
+        <v>9.315611233310705</v>
       </c>
       <c r="F10" t="n">
-        <v>2.032423664920536</v>
+        <v>16.83702044491027</v>
       </c>
       <c r="G10" t="n">
-        <v>2.878346768480959</v>
+        <v>13.16175515680142</v>
       </c>
       <c r="H10" t="n">
-        <v>3.383605223161524</v>
+        <v>22.95658877205014</v>
       </c>
       <c r="I10" t="n">
-        <v>4.286040854395962</v>
+        <v>17.90359243409373</v>
       </c>
     </row>
   </sheetData>
@@ -3955,28 +3957,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6412.108822858143</v>
+        <v>4.181320166095155</v>
       </c>
       <c r="C2" t="n">
-        <v>16177.61467798351</v>
+        <v>0.4208970014701769</v>
       </c>
       <c r="D2" t="n">
-        <v>226877.2591667986</v>
+        <v>0.8526037457425062</v>
       </c>
       <c r="E2" t="n">
-        <v>39450.46834742428</v>
+        <v>0.7640509318751292</v>
       </c>
       <c r="F2" t="n">
-        <v>417760.8205551166</v>
+        <v>4.715133708799925</v>
       </c>
       <c r="G2" t="n">
-        <v>1246.460676927177</v>
+        <v>3.128760689309818</v>
       </c>
       <c r="H2" t="n">
-        <v>58884.08675310281</v>
+        <v>1.120343181200717</v>
       </c>
       <c r="I2" t="n">
-        <v>109544.1170000301</v>
+        <v>2.16901563207049</v>
       </c>
     </row>
     <row r="3">
@@ -3986,28 +3988,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2164.677705544587</v>
+        <v>4.523162326947215</v>
       </c>
       <c r="C3" t="n">
-        <v>11466.7227572848</v>
+        <v>2.006389398783821</v>
       </c>
       <c r="D3" t="n">
-        <v>12766.89027288463</v>
+        <v>0.6290149801067138</v>
       </c>
       <c r="E3" t="n">
-        <v>120962.860210016</v>
+        <v>3.935221911415358</v>
       </c>
       <c r="F3" t="n">
-        <v>345588.3932784392</v>
+        <v>0.5237938989995889</v>
       </c>
       <c r="G3" t="n">
-        <v>9572.154394896079</v>
+        <v>0.9018444016850342</v>
       </c>
       <c r="H3" t="n">
-        <v>34048.72736894032</v>
+        <v>0.7292280282849966</v>
       </c>
       <c r="I3" t="n">
-        <v>76652.91799828652</v>
+        <v>1.892664992317532</v>
       </c>
     </row>
     <row r="4">
@@ -4017,28 +4019,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8326.955484781982</v>
+        <v>0.5425176883989096</v>
       </c>
       <c r="C4" t="n">
-        <v>7925.430432487436</v>
+        <v>5.490613761473377</v>
       </c>
       <c r="D4" t="n">
-        <v>228332.4501374071</v>
+        <v>0.7647687119114295</v>
       </c>
       <c r="E4" t="n">
-        <v>127955.5979676959</v>
+        <v>5.123899069666969</v>
       </c>
       <c r="F4" t="n">
-        <v>795967.2159420585</v>
+        <v>0.3718301454757267</v>
       </c>
       <c r="G4" t="n">
-        <v>9027.467967408056</v>
+        <v>0.7892011834632324</v>
       </c>
       <c r="H4" t="n">
-        <v>101063.4592286405</v>
+        <v>0.4851597628668927</v>
       </c>
       <c r="I4" t="n">
-        <v>182656.9395943542</v>
+        <v>1.938284331893791</v>
       </c>
     </row>
     <row r="5">
@@ -4048,28 +4050,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5475.915396630806</v>
+        <v>2.514267119168842</v>
       </c>
       <c r="C5" t="n">
-        <v>3494.91337050969</v>
+        <v>4.326207274014767</v>
       </c>
       <c r="D5" t="n">
-        <v>165748.3614948218</v>
+        <v>0.9689999702432708</v>
       </c>
       <c r="E5" t="n">
-        <v>111226.6460575687</v>
+        <v>2.758070711290728</v>
       </c>
       <c r="F5" t="n">
-        <v>831672.3790306748</v>
+        <v>0.9112063412967224</v>
       </c>
       <c r="G5" t="n">
-        <v>7507.48932138861</v>
+        <v>2.402667234452407</v>
       </c>
       <c r="H5" t="n">
-        <v>101363.203904979</v>
+        <v>1.281646412142081</v>
       </c>
       <c r="I5" t="n">
-        <v>175212.7012252247</v>
+        <v>2.166152151801259</v>
       </c>
     </row>
     <row r="6">
@@ -4079,28 +4081,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7599.925545613903</v>
+        <v>3.509072272289806</v>
       </c>
       <c r="C6" t="n">
-        <v>150297.0603118276</v>
+        <v>0.5222634943777393</v>
       </c>
       <c r="D6" t="n">
-        <v>297024.9416328784</v>
+        <v>3.18243701349726</v>
       </c>
       <c r="E6" t="n">
-        <v>24044.90400988286</v>
+        <v>1.418261501797488</v>
       </c>
       <c r="F6" t="n">
-        <v>837198.6016055684</v>
+        <v>1.237281057010822</v>
       </c>
       <c r="G6" t="n">
-        <v>8100.835438509881</v>
+        <v>1.777694103558046</v>
       </c>
       <c r="H6" t="n">
-        <v>4753.224838072987</v>
+        <v>1.390525279095197</v>
       </c>
       <c r="I6" t="n">
-        <v>189859.9276260506</v>
+        <v>1.862504960232337</v>
       </c>
     </row>
     <row r="7">
@@ -4110,28 +4112,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4490.060552633944</v>
+        <v>1.580713397398569</v>
       </c>
       <c r="C7" t="n">
-        <v>7256.478243895912</v>
+        <v>2.580775210485498</v>
       </c>
       <c r="D7" t="n">
-        <v>154775210.6032548</v>
+        <v>1.784274650597855</v>
       </c>
       <c r="E7" t="n">
-        <v>94578.96995438276</v>
+        <v>1.6905831473685</v>
       </c>
       <c r="F7" t="n">
-        <v>572297.5011757913</v>
+        <v>1.953548524246603</v>
       </c>
       <c r="G7" t="n">
-        <v>197.2951573284226</v>
+        <v>1.665308945530397</v>
       </c>
       <c r="H7" t="n">
-        <v>95317.25800536814</v>
+        <v>0.5031419481935657</v>
       </c>
       <c r="I7" t="n">
-        <v>22221335.45233488</v>
+        <v>1.679763689117284</v>
       </c>
     </row>
     <row r="8">
@@ -4141,28 +4143,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5868.400010851554</v>
+        <v>1.374746595689459</v>
       </c>
       <c r="C8" t="n">
-        <v>255.1290328809373</v>
+        <v>0.8978786563457533</v>
       </c>
       <c r="D8" t="n">
-        <v>3120145.402389309</v>
+        <v>0.789991155999985</v>
       </c>
       <c r="E8" t="n">
-        <v>105883.8738016963</v>
+        <v>8.838064103109154</v>
       </c>
       <c r="F8" t="n">
-        <v>761575.5037789284</v>
+        <v>1.187051237551938</v>
       </c>
       <c r="G8" t="n">
-        <v>2405.658471966781</v>
+        <v>0.607955020059503</v>
       </c>
       <c r="H8" t="n">
-        <v>66856.95550418066</v>
+        <v>0.6855078774815091</v>
       </c>
       <c r="I8" t="n">
-        <v>580427.2747128305</v>
+        <v>2.0544563780339</v>
       </c>
     </row>
     <row r="9">
@@ -4172,28 +4174,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>956.6505526141482</v>
+        <v>0.9741746710917951</v>
       </c>
       <c r="C9" t="n">
-        <v>1110.401407768937</v>
+        <v>2.748656876622583</v>
       </c>
       <c r="D9" t="n">
-        <v>270358.8138694638</v>
+        <v>1.625415066994726</v>
       </c>
       <c r="E9" t="n">
-        <v>108498.1348472907</v>
+        <v>14.10666825866139</v>
       </c>
       <c r="F9" t="n">
-        <v>812192.4827031174</v>
+        <v>0.5649489604598088</v>
       </c>
       <c r="G9" t="n">
-        <v>928.9746406285522</v>
+        <v>0.6699264571514156</v>
       </c>
       <c r="H9" t="n">
-        <v>88940.92322370921</v>
+        <v>0.8288271055772896</v>
       </c>
       <c r="I9" t="n">
-        <v>183283.7687492275</v>
+        <v>3.074088199508429</v>
       </c>
     </row>
     <row r="10">
@@ -4203,28 +4205,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3290.537615515859</v>
+        <v>1.264386589087799</v>
       </c>
       <c r="C10" t="n">
-        <v>2559.433608909461</v>
+        <v>6.08773196898462</v>
       </c>
       <c r="D10" t="n">
-        <v>129508.1255027545</v>
+        <v>0.6576883520402959</v>
       </c>
       <c r="E10" t="n">
-        <v>100784.188118854</v>
+        <v>0.6155192311197553</v>
       </c>
       <c r="F10" t="n">
-        <v>701252.0431087858</v>
+        <v>1.678492210319916</v>
       </c>
       <c r="G10" t="n">
-        <v>2720.61437615156</v>
+        <v>1.23577646307163</v>
       </c>
       <c r="H10" t="n">
-        <v>59086.40307576059</v>
+        <v>0.8735677394342929</v>
       </c>
       <c r="I10" t="n">
-        <v>142743.0493438188</v>
+        <v>1.773308936294044</v>
       </c>
     </row>
   </sheetData>
@@ -4300,28 +4302,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3064679454663386</v>
+        <v>1622.506303200336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1988795035932107</v>
+        <v>1195.571685566405</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2639925462576299</v>
+        <v>1119.687992968552</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3277531530806512</v>
+        <v>1410.537880566336</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2816702086344164</v>
+        <v>1534.86367676247</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3269822423986892</v>
+        <v>1355.033726836836</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2232893557079905</v>
+        <v>1450.894775265959</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2755764221627038</v>
+        <v>1384.156577309556</v>
       </c>
     </row>
     <row r="3">
@@ -4331,28 +4333,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2712708856874471</v>
+        <v>1198.860736111438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2662231360934969</v>
+        <v>1340.764257082356</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2247412819040464</v>
+        <v>1207.269157678709</v>
       </c>
       <c r="E3" t="n">
-        <v>0.194308213646573</v>
+        <v>1476.929184540792</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1974122128671972</v>
+        <v>1190.754414437834</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2446785373497096</v>
+        <v>944.9956789937775</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2233618986541512</v>
+        <v>1151.771547270226</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2317137380289459</v>
+        <v>1215.906425159305</v>
       </c>
     </row>
     <row r="4">
@@ -4362,28 +4364,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1299177252574244</v>
+        <v>1286.336962933392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1866874684949965</v>
+        <v>1421.345105388803</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2039138602065494</v>
+        <v>938.9400691091523</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1399044584932791</v>
+        <v>1031.544464990294</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1680486251803844</v>
+        <v>1215.501506015891</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2967012072420812</v>
+        <v>1135.498574648303</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2348756340229941</v>
+        <v>1216.373971015844</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1942927112711013</v>
+        <v>1177.934379157383</v>
       </c>
     </row>
     <row r="5">
@@ -4393,28 +4395,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2585986864409289</v>
+        <v>1251.149024498475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2443967022124914</v>
+        <v>1378.63725068888</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3717198859376797</v>
+        <v>1277.144195420596</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1716900790881692</v>
+        <v>1285.302926505805</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1947833329132158</v>
+        <v>1345.972586790497</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2267263338842759</v>
+        <v>1720.380099540446</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4007856274720404</v>
+        <v>1411.061132449189</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2669572354212573</v>
+        <v>1381.378173699127</v>
       </c>
     </row>
     <row r="6">
@@ -4424,28 +4426,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3409231932325323</v>
+        <v>1185.549903641466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2471653225167921</v>
+        <v>1331.30766743281</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4140479774841133</v>
+        <v>1347.87823684876</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2874750888419643</v>
+        <v>1533.734725888329</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3926220894974179</v>
+        <v>1357.75847152704</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3573369600836858</v>
+        <v>1663.661152180024</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2604666394009312</v>
+        <v>1378.987080275575</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3285767530082052</v>
+        <v>1399.839605399144</v>
       </c>
     </row>
     <row r="7">
@@ -4455,28 +4457,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1384274549269867</v>
+        <v>169.1158050803256</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2463152320092064</v>
+        <v>200.7393238514913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2609472059993374</v>
+        <v>231.2776319494856</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1766235156805702</v>
+        <v>164.222389421864</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2190136383515614</v>
+        <v>195.4068378885094</v>
       </c>
       <c r="G7" t="n">
-        <v>0.178738271136206</v>
+        <v>173.2524996348009</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2368201918165702</v>
+        <v>190.8922630430236</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2081265014172055</v>
+        <v>189.2723929813572</v>
       </c>
     </row>
     <row r="8">
@@ -4486,28 +4488,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1822152106854515</v>
+        <v>1477.909021431701</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1971040214459514</v>
+        <v>1156.927198329984</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1382425095291578</v>
+        <v>1411.4877295772</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3964737554036359</v>
+        <v>1458.185151159539</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2021655983463972</v>
+        <v>1712.954661898419</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2062585924366942</v>
+        <v>1537.88804549897</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1411311974533709</v>
+        <v>1049.671838628265</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2090844121858084</v>
+        <v>1400.717663789154</v>
       </c>
     </row>
     <row r="9">
@@ -4517,28 +4519,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2041986865754997</v>
+        <v>1441.96102718719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.382870746100098</v>
+        <v>1294.435759880884</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2449373842384454</v>
+        <v>1305.172620702161</v>
       </c>
       <c r="E9" t="n">
-        <v>0.531703616959419</v>
+        <v>1379.940144981812</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1943105277320875</v>
+        <v>1456.593951358757</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4549814221308957</v>
+        <v>1812.16302303075</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2454186736044541</v>
+        <v>1199.649931534235</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3226315796201285</v>
+        <v>1412.845208382256</v>
       </c>
     </row>
     <row r="10">
@@ -4548,28 +4550,718 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3630968014751761</v>
+        <v>1684.020507195581</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2344922696162023</v>
+        <v>1094.826011047688</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3548837535791567</v>
+        <v>1189.418287687666</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2611592348810878</v>
+        <v>1703.705227638604</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1698353847347239</v>
+        <v>1372.120190353075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2664239133011002</v>
+        <v>1177.664869643615</v>
       </c>
       <c r="H10" t="n">
-        <v>0.274560601883135</v>
+        <v>1198.647875148361</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2749217084957974</v>
+        <v>1345.771852673513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.088668072088367</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.191858715304193</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.909509875143868</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.507240143652254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.422360812759948</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.241425223732207</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.610510135817535</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.424510425499768</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.826515522937072</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.423322588514139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.349653509972271</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.493629805975473</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.234629086566095</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.644255258454265</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.693102617417537</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.23787262711955</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.5127127002892</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.475251468629594</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.800252998519525</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.031857106327081</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.917895594187421</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.542885429593994</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.647092186246041</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.275421069113265</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.971349299975671</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.876742872805707</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.686051039534078</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.894260617559283</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.675601002455863</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.394881560826008</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.894068411892107</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.913279257864102</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.971812489686855</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.4839719106687</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.445589424782298</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.791321265087532</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.184935138170253</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.968179370647889</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.636772333008366</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.783225990293127</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.199102714283896</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.644719658698349</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.816076149352838</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.114897879645738</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.463365396896741</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.93063248134559</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.835060047513736</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.571979189676699</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.547752563556656</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.841727144865018</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.744402485702139</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.896714361697676</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.594764136101944</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.108664784290298</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.394559755558674</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.589797890253201</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.594322572923659</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.9630525751124</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.882837127253296</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.204517745041912</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.630336000730807</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.436975486037866</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.708213043335235</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.774322078633596</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.024435614354644</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.133163179400285</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.413913846232902</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.029949897926571</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.613734968178534</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.926850435847008</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.664885607314915</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.115276221322123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>alg_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>dog_bark</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>footstep</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gunshot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>keyboard</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>moving_motor_vehicle</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sneeze_cough</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>avg_category_FAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.209210186842554</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.243459267940104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.943094407506486</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.943338914113156</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.540138992887215</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.376836516048222</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.262596135953068</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.502667774470114</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>TASys02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.305193455257516</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.150133625419315</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.294914223533659</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.555786513103932</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.022170572904187</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.124176142508404</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.560383357895759</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.001822555803253</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TASys03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.618091416782704</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.712374338408438</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.919416379270643</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.897907602736382</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.267199211688173</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.317133943028288</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.364178058440018</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.728042992907806</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>TASys08</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.573568253421314</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.112129582661254</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.541329098081334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.468176778616154</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.07113510606203</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.531679805028816</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.125171587380507</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.060455744464487</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TASys11</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.180690429947987</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.251563319443449</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.714207157315357</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.188659547869008</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.663226881480838</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.208373797496662</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.337801248170869</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.649217483103453</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>TBSys09</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.497736427872056</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.535379997865789</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.857536361866089</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.980318005194469</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.266639207279034</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.295238092961668</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.047196281985805</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.640006339289273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>TBSys14</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.827893514156074</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.686898733986332</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.899104000664344</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.089923006115846</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.836185605479564</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.773023437825366</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.39152423018318</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.929221789772958</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TBSys18</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.507383805622382</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.063715121035784</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.448095705391601</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.64570516301808</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.937703143272444</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.700749711863409</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.369805070502011</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.953308245815101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>TBSys24</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.01742070286349</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.597525223043448</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.239315380582809</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.853649017718965</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.032423664920536</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.878346768480959</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.383605223161524</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.286040854395962</v>
       </c>
     </row>
   </sheetData>
@@ -4645,28 +5337,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2763630635494929</v>
+        <v>0.3064679454663386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2293490488694601</v>
+        <v>0.1988795035932107</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2478616320863298</v>
+        <v>0.2639925462576299</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4485937126304068</v>
+        <v>0.3277531530806512</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2575225466793293</v>
+        <v>0.2816702086344164</v>
       </c>
       <c r="G2" t="n">
-        <v>0.352250759881323</v>
+        <v>0.3269822423986892</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2172082331763741</v>
+        <v>0.2232893557079905</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2898784281246737</v>
+        <v>0.2755764221627038</v>
       </c>
     </row>
     <row r="3">
@@ -4676,28 +5368,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.313357796933737</v>
+        <v>0.2712708856874471</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2865644655352552</v>
+        <v>0.2662231360934969</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2747413206873399</v>
+        <v>0.2247412819040464</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2231116517704808</v>
+        <v>0.194308213646573</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1595562385986284</v>
+        <v>0.1974122128671972</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2532384092851642</v>
+        <v>0.2446785373497096</v>
       </c>
       <c r="H3" t="n">
-        <v>0.283615979570615</v>
+        <v>0.2233618986541512</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2563122660544601</v>
+        <v>0.2317137380289459</v>
       </c>
     </row>
     <row r="4">
@@ -4707,28 +5399,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2013973456394055</v>
+        <v>0.1299177252574244</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2482849870305145</v>
+        <v>0.1866874684949965</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2543217180101267</v>
+        <v>0.2039138602065494</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1759211060004336</v>
+        <v>0.1399044584932791</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2347548331330168</v>
+        <v>0.1680486251803844</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3789027804357438</v>
+        <v>0.2967012072420812</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2727119772055281</v>
+        <v>0.2348756340229941</v>
       </c>
       <c r="I4" t="n">
-        <v>0.252327821064967</v>
+        <v>0.1942927112711013</v>
       </c>
     </row>
     <row r="5">
@@ -4738,28 +5430,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2473715231219192</v>
+        <v>0.2585986864409289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2999219614072325</v>
+        <v>0.2443967022124914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3138113828031304</v>
+        <v>0.3717198859376797</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1971357332448089</v>
+        <v>0.1716900790881692</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1786216183551226</v>
+        <v>0.1947833329132158</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1949798316782181</v>
+        <v>0.2267263338842759</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3249463338328211</v>
+        <v>0.4007856274720404</v>
       </c>
       <c r="I5" t="n">
-        <v>0.250969769206179</v>
+        <v>0.2669572354212573</v>
       </c>
     </row>
     <row r="6">
@@ -4769,28 +5461,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3601952788001206</v>
+        <v>0.3409231932325323</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2737533961634124</v>
+        <v>0.2471653225167921</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4710954097757964</v>
+        <v>0.4140479774841133</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3596623714246003</v>
+        <v>0.2874750888419643</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3380478466744306</v>
+        <v>0.3926220894974179</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3762159148340147</v>
+        <v>0.3573369600836858</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2377873629291768</v>
+        <v>0.2604666394009312</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3452510829430788</v>
+        <v>0.3285767530082052</v>
       </c>
     </row>
     <row r="7">
@@ -4800,28 +5492,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1572947825937603</v>
+        <v>0.1384274549269867</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2551096202886728</v>
+        <v>0.2463152320092064</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2595636818644813</v>
+        <v>0.2609472059993374</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1848672705271154</v>
+        <v>0.1766235156805702</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1986665349938831</v>
+        <v>0.2190136383515614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2048280238836154</v>
+        <v>0.178738271136206</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2279620657593524</v>
+        <v>0.2368201918165702</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2126131399872687</v>
+        <v>0.2081265014172055</v>
       </c>
     </row>
     <row r="8">
@@ -4831,28 +5523,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1717146000527219</v>
+        <v>0.1822152106854515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2145343227276206</v>
+        <v>0.1971040214459514</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1411015585883075</v>
+        <v>0.1382425095291578</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4244901602811736</v>
+        <v>0.3964737554036359</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1732938835430368</v>
+        <v>0.2021655983463972</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2019448414520945</v>
+        <v>0.2062585924366942</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1611963696585119</v>
+        <v>0.1411311974533709</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2126108194719238</v>
+        <v>0.2090844121858084</v>
       </c>
     </row>
     <row r="9">
@@ -4862,28 +5554,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1976083578472509</v>
+        <v>0.2041986865754997</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3551041062231761</v>
+        <v>0.382870746100098</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2522653325622617</v>
+        <v>0.2449373842384454</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5541905924449944</v>
+        <v>0.531703616959419</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1760643399649254</v>
+        <v>0.1943105277320875</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4748193356960806</v>
+        <v>0.4549814221308957</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2735402790729106</v>
+        <v>0.2454186736044541</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3262274776873714</v>
+        <v>0.3226315796201285</v>
       </c>
     </row>
     <row r="10">
@@ -4893,28 +5585,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3721346292795767</v>
+        <v>0.3630968014751761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2774667493185669</v>
+        <v>0.2344922696162023</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3460144101443559</v>
+        <v>0.3548837535791567</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3525419703656586</v>
+        <v>0.2611592348810878</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1458801525806724</v>
+        <v>0.1698353847347239</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2765354721563897</v>
+        <v>0.2664239133011002</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2919481366241494</v>
+        <v>0.274560601883135</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2946459314956243</v>
+        <v>0.2749217084957974</v>
       </c>
     </row>
   </sheetData>
@@ -4990,28 +5682,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.25713262793415</v>
+        <v>0.2763630635494929</v>
       </c>
       <c r="C2" t="n">
-        <v>5.284822934429076</v>
+        <v>0.2293490488694601</v>
       </c>
       <c r="D2" t="n">
-        <v>7.727484083580457</v>
+        <v>0.2478616320863298</v>
       </c>
       <c r="E2" t="n">
-        <v>6.272171250048469</v>
+        <v>0.4485937126304068</v>
       </c>
       <c r="F2" t="n">
-        <v>16.80065070966483</v>
+        <v>0.2575225466793293</v>
       </c>
       <c r="G2" t="n">
-        <v>9.908758853743327</v>
+        <v>0.352250759881323</v>
       </c>
       <c r="H2" t="n">
-        <v>2.829543820877033</v>
+        <v>0.2172082331763741</v>
       </c>
       <c r="I2" t="n">
-        <v>9.154366325753907</v>
+        <v>0.2898784281246737</v>
       </c>
     </row>
     <row r="3">
@@ -5021,28 +5713,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.707020623167</v>
+        <v>0.313357796933737</v>
       </c>
       <c r="C3" t="n">
-        <v>5.094430279740713</v>
+        <v>0.2865644655352552</v>
       </c>
       <c r="D3" t="n">
-        <v>3.076867863145878</v>
+        <v>0.2747413206873399</v>
       </c>
       <c r="E3" t="n">
-        <v>4.251881576080176</v>
+        <v>0.2231116517704808</v>
       </c>
       <c r="F3" t="n">
-        <v>5.225120985935774</v>
+        <v>0.1595562385986284</v>
       </c>
       <c r="G3" t="n">
-        <v>5.149269821256826</v>
+        <v>0.2532384092851642</v>
       </c>
       <c r="H3" t="n">
-        <v>1.586589470375376</v>
+        <v>0.283615979570615</v>
       </c>
       <c r="I3" t="n">
-        <v>5.155882945671678</v>
+        <v>0.2563122660544601</v>
       </c>
     </row>
     <row r="4">
@@ -5052,28 +5744,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.91236416452394</v>
+        <v>0.2013973456394055</v>
       </c>
       <c r="C4" t="n">
-        <v>5.294224743033649</v>
+        <v>0.2482849870305145</v>
       </c>
       <c r="D4" t="n">
-        <v>2.638973848213944</v>
+        <v>0.2543217180101267</v>
       </c>
       <c r="E4" t="n">
-        <v>3.065807154268722</v>
+        <v>0.1759211060004336</v>
       </c>
       <c r="F4" t="n">
-        <v>7.477322496725449</v>
+        <v>0.2347548331330168</v>
       </c>
       <c r="G4" t="n">
-        <v>7.737849960674517</v>
+        <v>0.3789027804357438</v>
       </c>
       <c r="H4" t="n">
-        <v>1.734886831377571</v>
+        <v>0.2727119772055281</v>
       </c>
       <c r="I4" t="n">
-        <v>6.26591845697397</v>
+        <v>0.252327821064967</v>
       </c>
     </row>
     <row r="5">
@@ -5083,28 +5775,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.889693391155831</v>
+        <v>0.2473715231219192</v>
       </c>
       <c r="C5" t="n">
-        <v>5.562313312871058</v>
+        <v>0.2999219614072325</v>
       </c>
       <c r="D5" t="n">
-        <v>5.075688455983801</v>
+        <v>0.3138113828031304</v>
       </c>
       <c r="E5" t="n">
-        <v>3.781921575105414</v>
+        <v>0.1971357332448089</v>
       </c>
       <c r="F5" t="n">
-        <v>8.491093806234417</v>
+        <v>0.1786216183551226</v>
       </c>
       <c r="G5" t="n">
-        <v>5.395249836194488</v>
+        <v>0.1949798316782181</v>
       </c>
       <c r="H5" t="n">
-        <v>1.921145852150604</v>
+        <v>0.3249463338328211</v>
       </c>
       <c r="I5" t="n">
-        <v>5.302443747099373</v>
+        <v>0.250969769206179</v>
       </c>
     </row>
     <row r="6">
@@ -5114,28 +5806,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.382557721397156</v>
+        <v>0.3601952788001206</v>
       </c>
       <c r="C6" t="n">
-        <v>5.56524282015679</v>
+        <v>0.2737533961634124</v>
       </c>
       <c r="D6" t="n">
-        <v>7.296967244722644</v>
+        <v>0.4710954097757964</v>
       </c>
       <c r="E6" t="n">
-        <v>4.268634533342707</v>
+        <v>0.3596623714246003</v>
       </c>
       <c r="F6" t="n">
-        <v>13.88120810218652</v>
+        <v>0.3380478466744306</v>
       </c>
       <c r="G6" t="n">
-        <v>6.130502151751106</v>
+        <v>0.3762159148340147</v>
       </c>
       <c r="H6" t="n">
-        <v>2.675017755405033</v>
+        <v>0.2377873629291768</v>
       </c>
       <c r="I6" t="n">
-        <v>6.885732904137423</v>
+        <v>0.3452510829430788</v>
       </c>
     </row>
     <row r="7">
@@ -5145,28 +5837,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.642169420041149</v>
+        <v>0.1572947825937603</v>
       </c>
       <c r="C7" t="n">
-        <v>6.077881124227503</v>
+        <v>0.2551096202886728</v>
       </c>
       <c r="D7" t="n">
-        <v>8.949504459882121</v>
+        <v>0.2595636818644813</v>
       </c>
       <c r="E7" t="n">
-        <v>4.386449485524173</v>
+        <v>0.1848672705271154</v>
       </c>
       <c r="F7" t="n">
-        <v>19.29752174744555</v>
+        <v>0.1986665349938831</v>
       </c>
       <c r="G7" t="n">
-        <v>5.866537984597382</v>
+        <v>0.2048280238836154</v>
       </c>
       <c r="H7" t="n">
-        <v>1.470114913792401</v>
+        <v>0.2279620657593524</v>
       </c>
       <c r="I7" t="n">
-        <v>7.670025590787184</v>
+        <v>0.2126131399872687</v>
       </c>
     </row>
     <row r="8">
@@ -5176,28 +5868,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.762945954439552</v>
+        <v>0.1717146000527219</v>
       </c>
       <c r="C8" t="n">
-        <v>3.8891623605424</v>
+        <v>0.2145343227276206</v>
       </c>
       <c r="D8" t="n">
-        <v>2.605998543778057</v>
+        <v>0.1411015585883075</v>
       </c>
       <c r="E8" t="n">
-        <v>5.752751110003253</v>
+        <v>0.4244901602811736</v>
       </c>
       <c r="F8" t="n">
-        <v>14.30280276951541</v>
+        <v>0.1732938835430368</v>
       </c>
       <c r="G8" t="n">
-        <v>3.216355593723414</v>
+        <v>0.2019448414520945</v>
       </c>
       <c r="H8" t="n">
-        <v>1.511137327505843</v>
+        <v>0.1611963696585119</v>
       </c>
       <c r="I8" t="n">
-        <v>5.148736237072561</v>
+        <v>0.2126108194719238</v>
       </c>
     </row>
     <row r="9">
@@ -5207,28 +5899,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.232878462963122</v>
+        <v>0.1976083578472509</v>
       </c>
       <c r="C9" t="n">
-        <v>4.452039346662303</v>
+        <v>0.3551041062231761</v>
       </c>
       <c r="D9" t="n">
-        <v>5.448573932946005</v>
+        <v>0.2522653325622617</v>
       </c>
       <c r="E9" t="n">
-        <v>4.476476626846548</v>
+        <v>0.5541905924449944</v>
       </c>
       <c r="F9" t="n">
-        <v>12.25441396593192</v>
+        <v>0.1760643399649254</v>
       </c>
       <c r="G9" t="n">
-        <v>4.759068908282515</v>
+        <v>0.4748193356960806</v>
       </c>
       <c r="H9" t="n">
-        <v>2.76999892742719</v>
+        <v>0.2735402790729106</v>
       </c>
       <c r="I9" t="n">
-        <v>5.484778595865658</v>
+        <v>0.3262274776873714</v>
       </c>
     </row>
     <row r="10">
@@ -5238,28 +5930,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.6570355821821</v>
+        <v>0.3721346292795767</v>
       </c>
       <c r="C10" t="n">
-        <v>4.208076911227053</v>
+        <v>0.2774667493185669</v>
       </c>
       <c r="D10" t="n">
-        <v>10.12684539845849</v>
+        <v>0.3460144101443559</v>
       </c>
       <c r="E10" t="n">
-        <v>4.544700918843045</v>
+        <v>0.3525419703656586</v>
       </c>
       <c r="F10" t="n">
-        <v>8.687599915093088</v>
+        <v>0.1458801525806724</v>
       </c>
       <c r="G10" t="n">
-        <v>3.662150740658291</v>
+        <v>0.2765354721563897</v>
       </c>
       <c r="H10" t="n">
-        <v>1.977442986817051</v>
+        <v>0.2919481366241494</v>
       </c>
       <c r="I10" t="n">
-        <v>6.266264636182732</v>
+        <v>0.2946459314956243</v>
       </c>
     </row>
   </sheetData>
@@ -5335,28 +6027,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.83510552579997</v>
+        <v>15.25713262793415</v>
       </c>
       <c r="C2" t="n">
-        <v>8.303534899440876</v>
+        <v>5.284822934429076</v>
       </c>
       <c r="D2" t="n">
-        <v>18.86503908100326</v>
+        <v>7.727484083580457</v>
       </c>
       <c r="E2" t="n">
-        <v>11.99902527874013</v>
+        <v>6.272171250048469</v>
       </c>
       <c r="F2" t="n">
-        <v>10.23064999891596</v>
+        <v>16.80065070966483</v>
       </c>
       <c r="G2" t="n">
-        <v>8.756189939056185</v>
+        <v>9.908758853743327</v>
       </c>
       <c r="H2" t="n">
-        <v>10.27716373860778</v>
+        <v>2.829543820877033</v>
       </c>
       <c r="I2" t="n">
-        <v>12.18095835165203</v>
+        <v>9.154366325753907</v>
       </c>
     </row>
     <row r="3">
@@ -5366,28 +6058,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.60504440053177</v>
+        <v>11.707020623167</v>
       </c>
       <c r="C3" t="n">
-        <v>16.43714572576795</v>
+        <v>5.094430279740713</v>
       </c>
       <c r="D3" t="n">
-        <v>8.184993844812567</v>
+        <v>3.076867863145878</v>
       </c>
       <c r="E3" t="n">
-        <v>14.02144234851022</v>
+        <v>4.251881576080176</v>
       </c>
       <c r="F3" t="n">
-        <v>8.257980984071366</v>
+        <v>5.225120985935774</v>
       </c>
       <c r="G3" t="n">
-        <v>8.969183312857325</v>
+        <v>5.149269821256826</v>
       </c>
       <c r="H3" t="n">
-        <v>5.46125994052116</v>
+        <v>1.586589470375376</v>
       </c>
       <c r="I3" t="n">
-        <v>11.27672150815319</v>
+        <v>5.155882945671678</v>
       </c>
     </row>
     <row r="4">
@@ -5397,28 +6089,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.92229742997117</v>
+        <v>15.91236416452394</v>
       </c>
       <c r="C4" t="n">
-        <v>17.94816739487601</v>
+        <v>5.294224743033649</v>
       </c>
       <c r="D4" t="n">
-        <v>13.62774313771158</v>
+        <v>2.638973848213944</v>
       </c>
       <c r="E4" t="n">
-        <v>15.15289391861191</v>
+        <v>3.065807154268722</v>
       </c>
       <c r="F4" t="n">
-        <v>9.50166810033474</v>
+        <v>7.477322496725449</v>
       </c>
       <c r="G4" t="n">
-        <v>8.146435235046255</v>
+        <v>7.737849960674517</v>
       </c>
       <c r="H4" t="n">
-        <v>13.80287750021031</v>
+        <v>1.734886831377571</v>
       </c>
       <c r="I4" t="n">
-        <v>12.87172610239457</v>
+        <v>6.26591845697397</v>
       </c>
     </row>
     <row r="5">
@@ -5428,28 +6120,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.62541942315943</v>
+        <v>6.889693391155831</v>
       </c>
       <c r="C5" t="n">
-        <v>28.46297164198114</v>
+        <v>5.562313312871058</v>
       </c>
       <c r="D5" t="n">
-        <v>16.3142143875196</v>
+        <v>5.075688455983801</v>
       </c>
       <c r="E5" t="n">
-        <v>34.03525443831938</v>
+        <v>3.781921575105414</v>
       </c>
       <c r="F5" t="n">
-        <v>9.012119417898077</v>
+        <v>8.491093806234417</v>
       </c>
       <c r="G5" t="n">
-        <v>6.573434382732103</v>
+        <v>5.395249836194488</v>
       </c>
       <c r="H5" t="n">
-        <v>21.35235146036752</v>
+        <v>1.921145852150604</v>
       </c>
       <c r="I5" t="n">
-        <v>18.62510930742532</v>
+        <v>5.302443747099373</v>
       </c>
     </row>
     <row r="6">
@@ -5459,28 +6151,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.84681818929639</v>
+        <v>8.382557721397156</v>
       </c>
       <c r="C6" t="n">
-        <v>9.113758513986483</v>
+        <v>5.56524282015679</v>
       </c>
       <c r="D6" t="n">
-        <v>36.19623089936147</v>
+        <v>7.296967244722644</v>
       </c>
       <c r="E6" t="n">
-        <v>10.67370164874256</v>
+        <v>4.268634533342707</v>
       </c>
       <c r="F6" t="n">
-        <v>14.7631894452928</v>
+        <v>13.88120810218652</v>
       </c>
       <c r="G6" t="n">
-        <v>10.03503193087829</v>
+        <v>6.130502151751106</v>
       </c>
       <c r="H6" t="n">
-        <v>10.37595933589319</v>
+        <v>2.675017755405033</v>
       </c>
       <c r="I6" t="n">
-        <v>18.14352713763588</v>
+        <v>6.885732904137423</v>
       </c>
     </row>
     <row r="7">
@@ -5490,28 +6182,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.89069736727745</v>
+        <v>7.642169420041149</v>
       </c>
       <c r="C7" t="n">
-        <v>13.78838354330273</v>
+        <v>6.077881124227503</v>
       </c>
       <c r="D7" t="n">
-        <v>12.25455409386711</v>
+        <v>8.949504459882121</v>
       </c>
       <c r="E7" t="n">
-        <v>11.97318268254924</v>
+        <v>4.386449485524173</v>
       </c>
       <c r="F7" t="n">
-        <v>9.34596357603985</v>
+        <v>19.29752174744555</v>
       </c>
       <c r="G7" t="n">
-        <v>4.669748242193009</v>
+        <v>5.866537984597382</v>
       </c>
       <c r="H7" t="n">
-        <v>13.73920244876933</v>
+        <v>1.470114913792401</v>
       </c>
       <c r="I7" t="n">
-        <v>11.38024742199982</v>
+        <v>7.670025590787184</v>
       </c>
     </row>
     <row r="8">
@@ -5521,28 +6213,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.60947571316348</v>
+        <v>4.762945954439552</v>
       </c>
       <c r="C8" t="n">
-        <v>11.98013254324064</v>
+        <v>3.8891623605424</v>
       </c>
       <c r="D8" t="n">
-        <v>7.62855703390062</v>
+        <v>2.605998543778057</v>
       </c>
       <c r="E8" t="n">
-        <v>17.60747709163377</v>
+        <v>5.752751110003253</v>
       </c>
       <c r="F8" t="n">
-        <v>12.05256727401974</v>
+        <v>14.30280276951541</v>
       </c>
       <c r="G8" t="n">
-        <v>5.345590568416043</v>
+        <v>3.216355593723414</v>
       </c>
       <c r="H8" t="n">
-        <v>10.44654996141213</v>
+        <v>1.511137327505843</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81005002654092</v>
+        <v>5.148736237072561</v>
       </c>
     </row>
     <row r="9">
@@ -5552,28 +6244,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.66559671083883</v>
+        <v>4.232878462963122</v>
       </c>
       <c r="C9" t="n">
-        <v>13.0526780628575</v>
+        <v>4.452039346662303</v>
       </c>
       <c r="D9" t="n">
-        <v>15.40703635193577</v>
+        <v>5.448573932946005</v>
       </c>
       <c r="E9" t="n">
-        <v>13.40225268106136</v>
+        <v>4.476476626846548</v>
       </c>
       <c r="F9" t="n">
-        <v>6.513552887988254</v>
+        <v>12.25441396593192</v>
       </c>
       <c r="G9" t="n">
-        <v>8.347056928103598</v>
+        <v>4.759068908282515</v>
       </c>
       <c r="H9" t="n">
-        <v>17.37188470182264</v>
+        <v>2.76999892742719</v>
       </c>
       <c r="I9" t="n">
-        <v>12.53715118922971</v>
+        <v>5.484778595865658</v>
       </c>
     </row>
     <row r="10">
@@ -5583,28 +6275,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.51486463110689</v>
+        <v>10.6570355821821</v>
       </c>
       <c r="C10" t="n">
-        <v>13.06116775942698</v>
+        <v>4.208076911227053</v>
       </c>
       <c r="D10" t="n">
-        <v>15.76067514527995</v>
+        <v>10.12684539845849</v>
       </c>
       <c r="E10" t="n">
-        <v>8.942506136876318</v>
+        <v>4.544700918843045</v>
       </c>
       <c r="F10" t="n">
-        <v>9.519669016236662</v>
+        <v>8.687599915093088</v>
       </c>
       <c r="G10" t="n">
-        <v>8.172521596964998</v>
+        <v>3.662150740658291</v>
       </c>
       <c r="H10" t="n">
-        <v>14.86285362113375</v>
+        <v>1.977442986817051</v>
       </c>
       <c r="I10" t="n">
-        <v>13.97632255814651</v>
+        <v>6.266264636182732</v>
       </c>
     </row>
   </sheetData>
@@ -5680,28 +6372,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.84299116776424</v>
+        <v>16.83510552579997</v>
       </c>
       <c r="C2" t="n">
-        <v>4.956617882377458</v>
+        <v>8.303534899440876</v>
       </c>
       <c r="D2" t="n">
-        <v>28.78965725212879</v>
+        <v>18.86503908100326</v>
       </c>
       <c r="E2" t="n">
-        <v>15.7252958311052</v>
+        <v>11.99902527874013</v>
       </c>
       <c r="F2" t="n">
-        <v>20.38856412044385</v>
+        <v>10.23064999891596</v>
       </c>
       <c r="G2" t="n">
-        <v>10.23637028258955</v>
+        <v>8.756189939056185</v>
       </c>
       <c r="H2" t="n">
-        <v>10.09053829826996</v>
+        <v>10.27716373860778</v>
       </c>
       <c r="I2" t="n">
-        <v>18.43286211923986</v>
+        <v>12.18095835165203</v>
       </c>
     </row>
     <row r="3">
@@ -5711,28 +6403,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.91035344746552</v>
+        <v>17.60504440053177</v>
       </c>
       <c r="C3" t="n">
-        <v>2.560774539157421</v>
+        <v>16.43714572576795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.774510565154287</v>
+        <v>8.184993844812567</v>
       </c>
       <c r="E3" t="n">
-        <v>23.24933597583447</v>
+        <v>14.02144234851022</v>
       </c>
       <c r="F3" t="n">
-        <v>13.15795641426689</v>
+        <v>8.257980984071366</v>
       </c>
       <c r="G3" t="n">
-        <v>58.20342202736543</v>
+        <v>8.969183312857325</v>
       </c>
       <c r="H3" t="n">
-        <v>7.156400444092867</v>
+        <v>5.46125994052116</v>
       </c>
       <c r="I3" t="n">
-        <v>25.00182191619098</v>
+        <v>11.27672150815319</v>
       </c>
     </row>
     <row r="4">
@@ -5742,28 +6434,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.42863563301819</v>
+        <v>11.92229742997117</v>
       </c>
       <c r="C4" t="n">
-        <v>15.53019889908825</v>
+        <v>17.94816739487601</v>
       </c>
       <c r="D4" t="n">
-        <v>23.82144622465034</v>
+        <v>13.62774313771158</v>
       </c>
       <c r="E4" t="n">
-        <v>29.22008988654659</v>
+        <v>15.15289391861191</v>
       </c>
       <c r="F4" t="n">
-        <v>50.13597908435645</v>
+        <v>9.50166810033474</v>
       </c>
       <c r="G4" t="n">
-        <v>289.514947784947</v>
+        <v>8.146435235046255</v>
       </c>
       <c r="H4" t="n">
-        <v>13.91885274220562</v>
+        <v>13.80287750021031</v>
       </c>
       <c r="I4" t="n">
-        <v>62.65287860783035</v>
+        <v>12.87172610239457</v>
       </c>
     </row>
     <row r="5">
@@ -5773,28 +6465,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.05118575719575</v>
+        <v>14.62541942315943</v>
       </c>
       <c r="C5" t="n">
-        <v>12.44845954169529</v>
+        <v>28.46297164198114</v>
       </c>
       <c r="D5" t="n">
-        <v>59.01121054628845</v>
+        <v>16.3142143875196</v>
       </c>
       <c r="E5" t="n">
-        <v>9.617860204835125</v>
+        <v>34.03525443831938</v>
       </c>
       <c r="F5" t="n">
-        <v>39.7739258413547</v>
+        <v>9.012119417898077</v>
       </c>
       <c r="G5" t="n">
-        <v>89.42571516604522</v>
+        <v>6.573434382732103</v>
       </c>
       <c r="H5" t="n">
-        <v>11.28792231485073</v>
+        <v>21.35235146036752</v>
       </c>
       <c r="I5" t="n">
-        <v>37.51661133889503</v>
+        <v>18.62510930742532</v>
       </c>
     </row>
     <row r="6">
@@ -5804,28 +6496,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.30799581213773</v>
+        <v>35.84681818929639</v>
       </c>
       <c r="C6" t="n">
-        <v>5.096178919393225</v>
+        <v>9.113758513986483</v>
       </c>
       <c r="D6" t="n">
-        <v>102.4230626359607</v>
+        <v>36.19623089936147</v>
       </c>
       <c r="E6" t="n">
-        <v>6.770495737626874</v>
+        <v>10.67370164874256</v>
       </c>
       <c r="F6" t="n">
-        <v>50.99351431938618</v>
+        <v>14.7631894452928</v>
       </c>
       <c r="G6" t="n">
-        <v>134.6656710271559</v>
+        <v>10.03503193087829</v>
       </c>
       <c r="H6" t="n">
-        <v>16.83103272200185</v>
+        <v>10.37595933589319</v>
       </c>
       <c r="I6" t="n">
-        <v>54.1554215962375</v>
+        <v>18.14352713763588</v>
       </c>
     </row>
     <row r="7">
@@ -5835,28 +6527,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.39051428278628</v>
+        <v>13.89069736727745</v>
       </c>
       <c r="C7" t="n">
-        <v>9.954547835590233</v>
+        <v>13.78838354330273</v>
       </c>
       <c r="D7" t="n">
-        <v>196.3741595904022</v>
+        <v>12.25455409386711</v>
       </c>
       <c r="E7" t="n">
-        <v>7.546624033548881</v>
+        <v>11.97318268254924</v>
       </c>
       <c r="F7" t="n">
-        <v>24.80487945206755</v>
+        <v>9.34596357603985</v>
       </c>
       <c r="G7" t="n">
-        <v>18.84288935001516</v>
+        <v>4.669748242193009</v>
       </c>
       <c r="H7" t="n">
-        <v>10.43736512290161</v>
+        <v>13.73920244876933</v>
       </c>
       <c r="I7" t="n">
-        <v>44.33585423818742</v>
+        <v>11.38024742199982</v>
       </c>
     </row>
     <row r="8">
@@ -5866,28 +6558,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.863763596372</v>
+        <v>10.60947571316348</v>
       </c>
       <c r="C8" t="n">
-        <v>6.175849981424335</v>
+        <v>11.98013254324064</v>
       </c>
       <c r="D8" t="n">
-        <v>9.255241969911822</v>
+        <v>7.62855703390062</v>
       </c>
       <c r="E8" t="n">
-        <v>34.47889974040675</v>
+        <v>17.60747709163377</v>
       </c>
       <c r="F8" t="n">
-        <v>11.5398335573696</v>
+        <v>12.05256727401974</v>
       </c>
       <c r="G8" t="n">
-        <v>5.369121453982387</v>
+        <v>5.345590568416043</v>
       </c>
       <c r="H8" t="n">
-        <v>4.570895181374453</v>
+        <v>10.44654996141213</v>
       </c>
       <c r="I8" t="n">
-        <v>12.17908649726305</v>
+        <v>10.81005002654092</v>
       </c>
     </row>
     <row r="9">
@@ -5897,28 +6589,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.62973153357154</v>
+        <v>13.66559671083883</v>
       </c>
       <c r="C9" t="n">
-        <v>10.05236143939945</v>
+        <v>13.0526780628575</v>
       </c>
       <c r="D9" t="n">
-        <v>55.33848311661558</v>
+        <v>15.40703635193577</v>
       </c>
       <c r="E9" t="n">
-        <v>92.4626439930434</v>
+        <v>13.40225268106136</v>
       </c>
       <c r="F9" t="n">
-        <v>36.30156208874274</v>
+        <v>6.513552887988254</v>
       </c>
       <c r="G9" t="n">
-        <v>54.42440004419785</v>
+        <v>8.347056928103598</v>
       </c>
       <c r="H9" t="n">
-        <v>41.37487137388803</v>
+        <v>17.37188470182264</v>
       </c>
       <c r="I9" t="n">
-        <v>47.51200765563694</v>
+        <v>12.53715118922971</v>
       </c>
     </row>
     <row r="10">
@@ -5928,28 +6620,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.81084730566783</v>
+        <v>27.51486463110689</v>
       </c>
       <c r="C10" t="n">
-        <v>29.29933502740357</v>
+        <v>13.06116775942698</v>
       </c>
       <c r="D10" t="n">
-        <v>31.96078349772449</v>
+        <v>15.76067514527995</v>
       </c>
       <c r="E10" t="n">
-        <v>7.165025763594542</v>
+        <v>8.942506136876318</v>
       </c>
       <c r="F10" t="n">
-        <v>16.73924613830536</v>
+        <v>9.519669016236662</v>
       </c>
       <c r="G10" t="n">
-        <v>72.98208250480286</v>
+        <v>8.172521596964998</v>
       </c>
       <c r="H10" t="n">
-        <v>75.69587358256206</v>
+        <v>14.86285362113375</v>
       </c>
       <c r="I10" t="n">
-        <v>36.80759911715153</v>
+        <v>13.97632255814651</v>
       </c>
     </row>
   </sheetData>
@@ -6025,28 +6717,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.27573862991423</v>
+        <v>38.84299116776424</v>
       </c>
       <c r="C2" t="n">
-        <v>1.239185958748322</v>
+        <v>4.956617882377458</v>
       </c>
       <c r="D2" t="n">
-        <v>5.410202146058666</v>
+        <v>28.78965725212879</v>
       </c>
       <c r="E2" t="n">
-        <v>6.897716403776094</v>
+        <v>15.7252958311052</v>
       </c>
       <c r="F2" t="n">
-        <v>5.35921756226233</v>
+        <v>20.38856412044385</v>
       </c>
       <c r="G2" t="n">
-        <v>2.569466072269428</v>
+        <v>10.23637028258955</v>
       </c>
       <c r="H2" t="n">
-        <v>4.032419920197533</v>
+        <v>10.09053829826996</v>
       </c>
       <c r="I2" t="n">
-        <v>4.826278099032372</v>
+        <v>18.43286211923986</v>
       </c>
     </row>
     <row r="3">
@@ -6056,28 +6748,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.656431901147499</v>
+        <v>60.91035344746552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8009267428267677</v>
+        <v>2.560774539157421</v>
       </c>
       <c r="D3" t="n">
-        <v>2.769718126283976</v>
+        <v>9.774510565154287</v>
       </c>
       <c r="E3" t="n">
-        <v>13.03413190292482</v>
+        <v>23.24933597583447</v>
       </c>
       <c r="F3" t="n">
-        <v>3.600051196534423</v>
+        <v>13.15795641426689</v>
       </c>
       <c r="G3" t="n">
-        <v>14.17697235918456</v>
+        <v>58.20342202736543</v>
       </c>
       <c r="H3" t="n">
-        <v>1.56735493850978</v>
+        <v>7.156400444092867</v>
       </c>
       <c r="I3" t="n">
-        <v>6.229369595344546</v>
+        <v>25.00182191619098</v>
       </c>
     </row>
     <row r="4">
@@ -6087,28 +6779,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.947276765590871</v>
+        <v>16.42863563301819</v>
       </c>
       <c r="C4" t="n">
-        <v>4.474834425255146</v>
+        <v>15.53019889908825</v>
       </c>
       <c r="D4" t="n">
-        <v>7.903047741629678</v>
+        <v>23.82144622465034</v>
       </c>
       <c r="E4" t="n">
-        <v>8.96366665986173</v>
+        <v>29.22008988654659</v>
       </c>
       <c r="F4" t="n">
-        <v>14.86558768332708</v>
+        <v>50.13597908435645</v>
       </c>
       <c r="G4" t="n">
-        <v>78.29590225276723</v>
+        <v>289.514947784947</v>
       </c>
       <c r="H4" t="n">
-        <v>3.763510699734908</v>
+        <v>13.91885274220562</v>
       </c>
       <c r="I4" t="n">
-        <v>17.31626088973809</v>
+        <v>62.65287860783035</v>
       </c>
     </row>
     <row r="5">
@@ -6118,28 +6810,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.957417742769863</v>
+        <v>41.05118575719575</v>
       </c>
       <c r="C5" t="n">
-        <v>2.671446905994195</v>
+        <v>12.44845954169529</v>
       </c>
       <c r="D5" t="n">
-        <v>14.57952801307435</v>
+        <v>59.01121054628845</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8423388379323065</v>
+        <v>9.617860204835125</v>
       </c>
       <c r="F5" t="n">
-        <v>8.026268544802122</v>
+        <v>39.7739258413547</v>
       </c>
       <c r="G5" t="n">
-        <v>13.14121276264902</v>
+        <v>89.42571516604522</v>
       </c>
       <c r="H5" t="n">
-        <v>5.786416035530564</v>
+        <v>11.28792231485073</v>
       </c>
       <c r="I5" t="n">
-        <v>7.857804120393204</v>
+        <v>37.51661133889503</v>
       </c>
     </row>
     <row r="6">
@@ -6149,28 +6841,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.443235088101162</v>
+        <v>62.30799581213773</v>
       </c>
       <c r="C6" t="n">
-        <v>1.71625135713731</v>
+        <v>5.096178919393225</v>
       </c>
       <c r="D6" t="n">
-        <v>12.23305267372734</v>
+        <v>102.4230626359607</v>
       </c>
       <c r="E6" t="n">
-        <v>1.752333457909344</v>
+        <v>6.770495737626874</v>
       </c>
       <c r="F6" t="n">
-        <v>18.54604286415724</v>
+        <v>50.99351431938618</v>
       </c>
       <c r="G6" t="n">
-        <v>25.59642827928479</v>
+        <v>134.6656710271559</v>
       </c>
       <c r="H6" t="n">
-        <v>6.867102016781772</v>
+        <v>16.83103272200185</v>
       </c>
       <c r="I6" t="n">
-        <v>10.30777796244271</v>
+        <v>54.1554215962375</v>
       </c>
     </row>
     <row r="7">
@@ -6180,28 +6872,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.87874166010218</v>
+        <v>42.39051428278628</v>
       </c>
       <c r="C7" t="n">
-        <v>2.780576615369689</v>
+        <v>9.954547835590233</v>
       </c>
       <c r="D7" t="n">
-        <v>31.13283769542645</v>
+        <v>196.3741595904022</v>
       </c>
       <c r="E7" t="n">
-        <v>2.479529180911555</v>
+        <v>7.546624033548881</v>
       </c>
       <c r="F7" t="n">
-        <v>5.785095305937475</v>
+        <v>24.80487945206755</v>
       </c>
       <c r="G7" t="n">
-        <v>4.183057668186834</v>
+        <v>18.84288935001516</v>
       </c>
       <c r="H7" t="n">
-        <v>2.811179687698058</v>
+        <v>10.43736512290161</v>
       </c>
       <c r="I7" t="n">
-        <v>8.721573973376033</v>
+        <v>44.33585423818742</v>
       </c>
     </row>
     <row r="8">
@@ -6211,28 +6903,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.852842075826814</v>
+        <v>13.863763596372</v>
       </c>
       <c r="C8" t="n">
-        <v>2.274531943311374</v>
+        <v>6.175849981424335</v>
       </c>
       <c r="D8" t="n">
-        <v>1.982313488386581</v>
+        <v>9.255241969911822</v>
       </c>
       <c r="E8" t="n">
-        <v>14.36665772433868</v>
+        <v>34.47889974040675</v>
       </c>
       <c r="F8" t="n">
-        <v>2.878938394835387</v>
+        <v>11.5398335573696</v>
       </c>
       <c r="G8" t="n">
-        <v>1.420322856238258</v>
+        <v>5.369121453982387</v>
       </c>
       <c r="H8" t="n">
-        <v>1.435524716117413</v>
+        <v>4.570895181374453</v>
       </c>
       <c r="I8" t="n">
-        <v>4.03016159986493</v>
+        <v>12.17908649726305</v>
       </c>
     </row>
     <row r="9">
@@ -6242,28 +6934,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.75115243175944</v>
+        <v>42.62973153357154</v>
       </c>
       <c r="C9" t="n">
-        <v>2.809749368245125</v>
+        <v>10.05236143939945</v>
       </c>
       <c r="D9" t="n">
-        <v>22.77313982133602</v>
+        <v>55.33848311661558</v>
       </c>
       <c r="E9" t="n">
-        <v>29.74987654453253</v>
+        <v>92.4626439930434</v>
       </c>
       <c r="F9" t="n">
-        <v>9.789144845774672</v>
+        <v>36.30156208874274</v>
       </c>
       <c r="G9" t="n">
-        <v>10.54115206546034</v>
+        <v>54.42440004419785</v>
       </c>
       <c r="H9" t="n">
-        <v>14.88940877510576</v>
+        <v>41.37487137388803</v>
       </c>
       <c r="I9" t="n">
-        <v>14.61480340745912</v>
+        <v>47.51200765563694</v>
       </c>
     </row>
     <row r="10">
@@ -6273,28 +6965,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.720943726338476</v>
+        <v>23.81084730566783</v>
       </c>
       <c r="C10" t="n">
-        <v>5.636765353827471</v>
+        <v>29.29933502740357</v>
       </c>
       <c r="D10" t="n">
-        <v>9.850629320381643</v>
+        <v>31.96078349772449</v>
       </c>
       <c r="E10" t="n">
-        <v>4.542625936088925</v>
+        <v>7.165025763594542</v>
       </c>
       <c r="F10" t="n">
-        <v>5.098881872789747</v>
+        <v>16.73924613830536</v>
       </c>
       <c r="G10" t="n">
-        <v>14.51397260125434</v>
+        <v>72.98208250480286</v>
       </c>
       <c r="H10" t="n">
-        <v>15.14657023497577</v>
+        <v>75.69587358256206</v>
       </c>
       <c r="I10" t="n">
-        <v>8.215769863665196</v>
+        <v>36.80759911715153</v>
       </c>
     </row>
   </sheetData>
@@ -6370,28 +7062,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.8374623172285</v>
+        <v>8.27573862991423</v>
       </c>
       <c r="C2" t="n">
-        <v>76.36483807112745</v>
+        <v>1.239185958748322</v>
       </c>
       <c r="D2" t="n">
-        <v>342.8816857971597</v>
+        <v>5.410202146058666</v>
       </c>
       <c r="E2" t="n">
-        <v>168.4891803476712</v>
+        <v>6.897716403776094</v>
       </c>
       <c r="F2" t="n">
-        <v>136.7225483078291</v>
+        <v>5.35921756226233</v>
       </c>
       <c r="G2" t="n">
-        <v>188.0495440793693</v>
+        <v>2.569466072269428</v>
       </c>
       <c r="H2" t="n">
-        <v>164.0849938162428</v>
+        <v>4.032419920197533</v>
       </c>
       <c r="I2" t="n">
-        <v>191.4900361052326</v>
+        <v>4.826278099032372</v>
       </c>
     </row>
     <row r="3">
@@ -6401,28 +7093,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>558.0239068772244</v>
+        <v>7.656431901147499</v>
       </c>
       <c r="C3" t="n">
-        <v>118.1084411328338</v>
+        <v>0.8009267428267677</v>
       </c>
       <c r="D3" t="n">
-        <v>149.9694248067208</v>
+        <v>2.769718126283976</v>
       </c>
       <c r="E3" t="n">
-        <v>260.5980276607952</v>
+        <v>13.03413190292482</v>
       </c>
       <c r="F3" t="n">
-        <v>44.24091424889775</v>
+        <v>3.600051196534423</v>
       </c>
       <c r="G3" t="n">
-        <v>127.1245069552951</v>
+        <v>14.17697235918456</v>
       </c>
       <c r="H3" t="n">
-        <v>170.2801237572421</v>
+        <v>1.56735493850978</v>
       </c>
       <c r="I3" t="n">
-        <v>204.0493350627156</v>
+        <v>6.229369595344546</v>
       </c>
     </row>
     <row r="4">
@@ -6432,28 +7124,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.9892439921405</v>
+        <v>2.947276765590871</v>
       </c>
       <c r="C4" t="n">
-        <v>316.0325592778554</v>
+        <v>4.474834425255146</v>
       </c>
       <c r="D4" t="n">
-        <v>220.5054683220042</v>
+        <v>7.903047741629678</v>
       </c>
       <c r="E4" t="n">
-        <v>329.3007317476322</v>
+        <v>8.96366665986173</v>
       </c>
       <c r="F4" t="n">
-        <v>312.5300311010596</v>
+        <v>14.86558768332708</v>
       </c>
       <c r="G4" t="n">
-        <v>495.5162528676719</v>
+        <v>78.29590225276723</v>
       </c>
       <c r="H4" t="n">
-        <v>159.0217459095384</v>
+        <v>3.763510699734908</v>
       </c>
       <c r="I4" t="n">
-        <v>283.8422904597003</v>
+        <v>17.31626088973809</v>
       </c>
     </row>
     <row r="5">
@@ -6463,28 +7155,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>317.6459042604947</v>
+        <v>9.957417742769863</v>
       </c>
       <c r="C5" t="n">
-        <v>214.3551023938435</v>
+        <v>2.671446905994195</v>
       </c>
       <c r="D5" t="n">
-        <v>308.4273787954726</v>
+        <v>14.57952801307435</v>
       </c>
       <c r="E5" t="n">
-        <v>232.3189885832026</v>
+        <v>0.8423388379323065</v>
       </c>
       <c r="F5" t="n">
-        <v>136.3456417618927</v>
+        <v>8.026268544802122</v>
       </c>
       <c r="G5" t="n">
-        <v>201.2558254522282</v>
+        <v>13.14121276264902</v>
       </c>
       <c r="H5" t="n">
-        <v>236.3181335261124</v>
+        <v>5.786416035530564</v>
       </c>
       <c r="I5" t="n">
-        <v>235.238139253321</v>
+        <v>7.857804120393204</v>
       </c>
     </row>
     <row r="6">
@@ -6494,28 +7186,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>363.7503718313483</v>
+        <v>5.443235088101162</v>
       </c>
       <c r="C6" t="n">
-        <v>118.9776722971546</v>
+        <v>1.71625135713731</v>
       </c>
       <c r="D6" t="n">
-        <v>449.592330584117</v>
+        <v>12.23305267372734</v>
       </c>
       <c r="E6" t="n">
-        <v>89.22085509626959</v>
+        <v>1.752333457909344</v>
       </c>
       <c r="F6" t="n">
-        <v>387.4149778159444</v>
+        <v>18.54604286415724</v>
       </c>
       <c r="G6" t="n">
-        <v>512.9719918062256</v>
+        <v>25.59642827928479</v>
       </c>
       <c r="H6" t="n">
-        <v>134.0869745206783</v>
+        <v>6.867102016781772</v>
       </c>
       <c r="I6" t="n">
-        <v>293.7164534216768</v>
+        <v>10.30777796244271</v>
       </c>
     </row>
     <row r="7">
@@ -6525,28 +7217,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.0989791661932</v>
+        <v>11.87874166010218</v>
       </c>
       <c r="C7" t="n">
-        <v>124.8888809284672</v>
+        <v>2.780576615369689</v>
       </c>
       <c r="D7" t="n">
-        <v>240.5288565134224</v>
+        <v>31.13283769542645</v>
       </c>
       <c r="E7" t="n">
-        <v>78.10726102791705</v>
+        <v>2.479529180911555</v>
       </c>
       <c r="F7" t="n">
-        <v>78.33512349578086</v>
+        <v>5.785095305937475</v>
       </c>
       <c r="G7" t="n">
-        <v>96.83521475364614</v>
+        <v>4.183057668186834</v>
       </c>
       <c r="H7" t="n">
-        <v>137.2381374510078</v>
+        <v>2.811179687698058</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2903504766335</v>
+        <v>8.721573973376033</v>
       </c>
     </row>
     <row r="8">
@@ -6556,28 +7248,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81.99932084736247</v>
+        <v>3.852842075826814</v>
       </c>
       <c r="C8" t="n">
-        <v>82.62932086645833</v>
+        <v>2.274531943311374</v>
       </c>
       <c r="D8" t="n">
-        <v>57.71820921605649</v>
+        <v>1.982313488386581</v>
       </c>
       <c r="E8" t="n">
-        <v>123.4005430073912</v>
+        <v>14.36665772433868</v>
       </c>
       <c r="F8" t="n">
-        <v>51.12580796785187</v>
+        <v>2.878938394835387</v>
       </c>
       <c r="G8" t="n">
-        <v>74.94337375251052</v>
+        <v>1.420322856238258</v>
       </c>
       <c r="H8" t="n">
-        <v>99.3062486773897</v>
+        <v>1.435524716117413</v>
       </c>
       <c r="I8" t="n">
-        <v>81.58897490500294</v>
+        <v>4.03016159986493</v>
       </c>
     </row>
     <row r="9">
@@ -6587,28 +7279,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195.3003983356321</v>
+        <v>11.75115243175944</v>
       </c>
       <c r="C9" t="n">
-        <v>120.7115685148401</v>
+        <v>2.809749368245125</v>
       </c>
       <c r="D9" t="n">
-        <v>258.5627937359059</v>
+        <v>22.77313982133602</v>
       </c>
       <c r="E9" t="n">
-        <v>190.2615653190142</v>
+        <v>29.74987654453253</v>
       </c>
       <c r="F9" t="n">
-        <v>46.17038166002931</v>
+        <v>9.789144845774672</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2599909234341</v>
+        <v>10.54115206546034</v>
       </c>
       <c r="H9" t="n">
-        <v>303.8822622554908</v>
+        <v>14.88940877510576</v>
       </c>
       <c r="I9" t="n">
-        <v>178.3069943920495</v>
+        <v>14.61480340745912</v>
       </c>
     </row>
     <row r="10">
@@ -6618,28 +7310,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>244.7363003046148</v>
+        <v>2.720943726338476</v>
       </c>
       <c r="C10" t="n">
-        <v>134.905115576531</v>
+        <v>5.636765353827471</v>
       </c>
       <c r="D10" t="n">
-        <v>321.6377367054019</v>
+        <v>9.850629320381643</v>
       </c>
       <c r="E10" t="n">
-        <v>77.92628747587514</v>
+        <v>4.542625936088925</v>
       </c>
       <c r="F10" t="n">
-        <v>49.20082855213332</v>
+        <v>5.098881872789747</v>
       </c>
       <c r="G10" t="n">
-        <v>177.9041238531372</v>
+        <v>14.51397260125434</v>
       </c>
       <c r="H10" t="n">
-        <v>141.5352737842304</v>
+        <v>15.14657023497577</v>
       </c>
       <c r="I10" t="n">
-        <v>163.9779523217034</v>
+        <v>8.215769863665196</v>
       </c>
     </row>
   </sheetData>
@@ -6715,28 +7407,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05064343706300589</v>
+        <v>263.8374623172285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01587253851979975</v>
+        <v>76.36483807112745</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09608319823144784</v>
+        <v>342.8816857971597</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07724900684009151</v>
+        <v>168.4891803476712</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05801267740474392</v>
+        <v>136.7225483078291</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1018552001206298</v>
+        <v>188.0495440793693</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01949166902207666</v>
+        <v>164.0849938162428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05988681817168505</v>
+        <v>191.4900361052326</v>
       </c>
     </row>
     <row r="3">
@@ -6746,28 +7438,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1737065967165178</v>
+        <v>558.0239068772244</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07639728127406492</v>
+        <v>118.1084411328338</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03496539539229171</v>
+        <v>149.9694248067208</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05296589606257174</v>
+        <v>260.5980276607952</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0740940292978105</v>
+        <v>44.24091424889775</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3132008017956578</v>
+        <v>127.1245069552951</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04704790117402013</v>
+        <v>170.2801237572421</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1103397002447049</v>
+        <v>204.0493350627156</v>
       </c>
     </row>
     <row r="4">
@@ -6777,28 +7469,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04176059100015139</v>
+        <v>153.9892439921405</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07523107728848383</v>
+        <v>316.0325592778554</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02779019152295603</v>
+        <v>220.5054683220042</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05502742173894604</v>
+        <v>329.3007317476322</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1161275164898532</v>
+        <v>312.5300311010596</v>
       </c>
       <c r="G4" t="n">
-        <v>0.497204365297342</v>
+        <v>495.5162528676719</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02413859886630831</v>
+        <v>159.0217459095384</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1196113946005773</v>
+        <v>283.8422904597003</v>
       </c>
     </row>
     <row r="5">
@@ -6808,28 +7500,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09514343865387875</v>
+        <v>317.6459042604947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1647943016437705</v>
+        <v>214.3551023938435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05920726086922112</v>
+        <v>308.4273787954726</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08526148538882555</v>
+        <v>232.3189885832026</v>
       </c>
       <c r="F5" t="n">
-        <v>0.149034082770667</v>
+        <v>136.3456417618927</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3124258152584373</v>
+        <v>201.2558254522282</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06312437863098702</v>
+        <v>236.3181335261124</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1327129661736839</v>
+        <v>235.238139253321</v>
       </c>
     </row>
     <row r="6">
@@ -6839,28 +7531,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2448837068547701</v>
+        <v>363.7503718313483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0350379424749796</v>
+        <v>118.9776722971546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3659983202243855</v>
+        <v>449.592330584117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03582128827077513</v>
+        <v>89.22085509626959</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1725201754783178</v>
+        <v>387.4149778159444</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6564052066532983</v>
+        <v>512.9719918062256</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02906555048363352</v>
+        <v>134.0869745206783</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2199617414914514</v>
+        <v>293.7164534216768</v>
       </c>
     </row>
     <row r="7">
@@ -6870,28 +7562,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06095373841708673</v>
+        <v>177.0989791661932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1244095035137369</v>
+        <v>124.8888809284672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1821980397960693</v>
+        <v>240.5288565134224</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03337319461670832</v>
+        <v>78.10726102791705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07215189425846369</v>
+        <v>78.33512349578086</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2024525733085931</v>
+        <v>96.83521475364614</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02677625087779406</v>
+        <v>137.2381374510078</v>
       </c>
       <c r="I7" t="n">
-        <v>0.100330742112636</v>
+        <v>133.2903504766335</v>
       </c>
     </row>
     <row r="8">
@@ -6901,28 +7593,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03715604861806554</v>
+        <v>81.99932084736247</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02988172002140244</v>
+        <v>82.62932086645833</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02677371266235362</v>
+        <v>57.71820921605649</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0495855112165216</v>
+        <v>123.4005430073912</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05080530022665997</v>
+        <v>51.12580796785187</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06668567148680982</v>
+        <v>74.94337375251052</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01001823343657449</v>
+        <v>99.3062486773897</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03870088538119821</v>
+        <v>81.58897490500294</v>
       </c>
     </row>
     <row r="9">
@@ -6932,28 +7624,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05046065257957644</v>
+        <v>195.3003983356321</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0420772273681691</v>
+        <v>120.7115685148401</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08945882444682418</v>
+        <v>258.5627937359059</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1221294178596279</v>
+        <v>190.2615653190142</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08371669116588221</v>
+        <v>46.17038166002931</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1485570600659512</v>
+        <v>133.2599909234341</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07418773119148825</v>
+        <v>303.8822622554908</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08722680066821702</v>
+        <v>178.3069943920495</v>
       </c>
     </row>
     <row r="10">
@@ -6963,28 +7655,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09642420046775546</v>
+        <v>244.7363003046148</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09901734603415596</v>
+        <v>134.905115576531</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08357082450784425</v>
+        <v>321.6377367054019</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05769202808932422</v>
+        <v>77.92628747587514</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05481727991527174</v>
+        <v>49.20082855213332</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1774956675496568</v>
+        <v>177.9041238531372</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1110692591944948</v>
+        <v>141.5352737842304</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09715522939407191</v>
+        <v>163.9779523217034</v>
       </c>
     </row>
   </sheetData>
